--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_6_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_6_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2467647.764339093</v>
+        <v>2501023.479066941</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8477409.014667938</v>
+        <v>9767227.991507743</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7731680.00421117</v>
+        <v>7504363.140915887</v>
       </c>
     </row>
     <row r="11">
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.894215984066249e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3855,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>-3.200995024599251e-12</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.200995024599251e-12</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -6452,22 +6454,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.913349478854798e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.913349478854798e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.913349478854798e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.913349478854798e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.913349478854798e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.913349478854798e-12</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -7503,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>3.233328307676012e-12</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -23255,76 +23257,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.9894291740246</v>
+        <v>185.3688765540544</v>
       </c>
       <c r="C11" t="n">
-        <v>305.2875897810359</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D11" t="n">
-        <v>289.4605589812028</v>
+        <v>133.8400063612326</v>
       </c>
       <c r="E11" t="n">
-        <v>352.2387279966206</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F11" t="n">
-        <v>396.4306022709785</v>
+        <v>223.6298453594137</v>
       </c>
       <c r="G11" t="n">
-        <v>424.6818009287885</v>
+        <v>251.7632228650384</v>
       </c>
       <c r="H11" t="n">
-        <v>354.1057438688471</v>
+        <v>180.098351082465</v>
       </c>
       <c r="I11" t="n">
-        <v>271.5906538559871</v>
+        <v>94.24759697480002</v>
       </c>
       <c r="J11" t="n">
-        <v>139.7090537154</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>126.1047343199522</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>80.37209147528297</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37.51431860948847</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>30.82616285259982</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>50.03953329338233</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>96.82071725642069</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.5011676006291</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>218.8056833965312</v>
+        <v>55.78404782560364</v>
       </c>
       <c r="S11" t="n">
-        <v>229.2391072423429</v>
+        <v>70.93370511695113</v>
       </c>
       <c r="T11" t="n">
-        <v>201.2158566277305</v>
+        <v>45.07954191406941</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7170627490279</v>
+        <v>75.08708443688289</v>
       </c>
       <c r="V11" t="n">
-        <v>291.0479778689298</v>
+        <v>135.4274252489596</v>
       </c>
       <c r="W11" t="n">
-        <v>299.8320573472784</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X11" t="n">
-        <v>324.2884350693661</v>
+        <v>168.6678824493959</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.829406984903</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="12">
@@ -23334,34 +23336,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>178.3794303463364</v>
+        <v>22.75887772636622</v>
       </c>
       <c r="C12" t="n">
-        <v>197.601171219591</v>
+        <v>41.98061859962078</v>
       </c>
       <c r="D12" t="n">
-        <v>163.5809110228732</v>
+        <v>7.960358402903012</v>
       </c>
       <c r="E12" t="n">
-        <v>180.7560448694846</v>
+        <v>25.13549224951439</v>
       </c>
       <c r="F12" t="n">
-        <v>166.9635158476542</v>
+        <v>11.34296322768401</v>
       </c>
       <c r="G12" t="n">
-        <v>152.1970729030878</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>129.9724996554631</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>111.0119777106923</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>96.91743110463831</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>49.54639328131779</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,34 +23378,34 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>14.55336403701884</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.97092067138233</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>159.0808953943529</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>204.4518728074846</v>
+        <v>47.66038217664871</v>
       </c>
       <c r="T12" t="n">
-        <v>223.6138875100569</v>
+        <v>67.73923995927547</v>
       </c>
       <c r="U12" t="n">
-        <v>240.8022298493293</v>
+        <v>85.17752986922622</v>
       </c>
       <c r="V12" t="n">
-        <v>237.9167856020835</v>
+        <v>82.29623298211334</v>
       </c>
       <c r="W12" t="n">
-        <v>277.1556891423136</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X12" t="n">
-        <v>221.3766707868633</v>
+        <v>65.75611816689312</v>
       </c>
       <c r="Y12" t="n">
-        <v>238.7911004536678</v>
+        <v>83.17054783369767</v>
       </c>
     </row>
     <row r="13">
@@ -23413,76 +23415,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3589931716802</v>
+        <v>0.7384405517100276</v>
       </c>
       <c r="C13" t="n">
-        <v>147.8233209926711</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6829313189427</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>115.737220189224</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>109.7915090595054</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>152.5290390586988</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.6150825956375</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>156.0141907946292</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>131.4610376602657</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>97.60426712277187</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>80.61660094977039</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>80.58462289531299</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>65.36253968139046</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>92.4035711028931</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8762357239453</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.6449573592617</v>
+        <v>0.5988949867729332</v>
       </c>
       <c r="R13" t="n">
-        <v>220.9566182979794</v>
+        <v>62.95971444188311</v>
       </c>
       <c r="S13" t="n">
-        <v>234.0868596672077</v>
+        <v>77.54526674807585</v>
       </c>
       <c r="T13" t="n">
-        <v>197.6048032655004</v>
+        <v>41.75843481840135</v>
       </c>
       <c r="U13" t="n">
-        <v>275.7632630160019</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V13" t="n">
-        <v>214.9897454544547</v>
+        <v>59.36919283448458</v>
       </c>
       <c r="W13" t="n">
-        <v>280.1033302743837</v>
+        <v>124.4827776544135</v>
       </c>
       <c r="X13" t="n">
-        <v>197.7618375156397</v>
+        <v>42.14128489566954</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.3039361686639</v>
+        <v>41.68338354869374</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.6305821736482</v>
+        <v>185.3688765540544</v>
       </c>
       <c r="C14" t="n">
-        <v>132.9287427806595</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D14" t="n">
-        <v>117.1017119808265</v>
+        <v>133.8400063612326</v>
       </c>
       <c r="E14" t="n">
-        <v>162.6996767046497</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F14" t="n">
-        <v>206.8915509790075</v>
+        <v>223.6298453594127</v>
       </c>
       <c r="G14" t="n">
-        <v>235.1427496368175</v>
+        <v>251.7632228650384</v>
       </c>
       <c r="H14" t="n">
-        <v>164.5666925768761</v>
+        <v>180.098351082465</v>
       </c>
       <c r="I14" t="n">
-        <v>82.05160256401609</v>
+        <v>94.24759697480002</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>46.44683639615485</v>
+        <v>55.78404782560364</v>
       </c>
       <c r="S14" t="n">
-        <v>56.88026024196657</v>
+        <v>70.93370511695113</v>
       </c>
       <c r="T14" t="n">
-        <v>28.85700962735419</v>
+        <v>45.07954191406941</v>
       </c>
       <c r="U14" t="n">
-        <v>58.3582157486515</v>
+        <v>75.08708443688289</v>
       </c>
       <c r="V14" t="n">
-        <v>118.6891308685534</v>
+        <v>135.4274252489596</v>
       </c>
       <c r="W14" t="n">
-        <v>127.473210346902</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X14" t="n">
-        <v>151.9295880689897</v>
+        <v>168.6678824493959</v>
       </c>
       <c r="Y14" t="n">
-        <v>185.4705599845266</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="15">
@@ -23571,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.020583345960034</v>
+        <v>22.75887772636622</v>
       </c>
       <c r="C15" t="n">
-        <v>25.24232421921459</v>
+        <v>41.98061859962078</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>7.960358402903012</v>
       </c>
       <c r="E15" t="n">
-        <v>8.397197869108197</v>
+        <v>25.13549224951439</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>11.34296322768401</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>32.09302580710823</v>
+        <v>47.66038217664871</v>
       </c>
       <c r="T15" t="n">
-        <v>51.2550405096805</v>
+        <v>67.73923995927547</v>
       </c>
       <c r="U15" t="n">
-        <v>68.44338284895298</v>
+        <v>85.17752986922622</v>
       </c>
       <c r="V15" t="n">
-        <v>65.55793860170715</v>
+        <v>82.29623298211334</v>
       </c>
       <c r="W15" t="n">
-        <v>104.7968421419372</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X15" t="n">
-        <v>49.01782378648693</v>
+        <v>65.75611816689312</v>
       </c>
       <c r="Y15" t="n">
-        <v>66.43225345329148</v>
+        <v>83.17054783369767</v>
       </c>
     </row>
     <row r="16">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.7384405517100276</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23695,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.5988949867729332</v>
       </c>
       <c r="R16" t="n">
-        <v>48.597771297603</v>
+        <v>62.95971444188311</v>
       </c>
       <c r="S16" t="n">
-        <v>61.72801266683132</v>
+        <v>77.54526674807585</v>
       </c>
       <c r="T16" t="n">
-        <v>25.24595626512402</v>
+        <v>41.75843481840135</v>
       </c>
       <c r="U16" t="n">
-        <v>103.4044160156256</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V16" t="n">
-        <v>42.63089845407839</v>
+        <v>59.36919283448458</v>
       </c>
       <c r="W16" t="n">
-        <v>107.7444832740073</v>
+        <v>124.4827776544135</v>
       </c>
       <c r="X16" t="n">
-        <v>25.40299051526335</v>
+        <v>42.14128489566954</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.94508916828755</v>
+        <v>41.68338354869374</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>168.6305821736482</v>
+        <v>185.3688765540544</v>
       </c>
       <c r="C17" t="n">
-        <v>132.9287427806595</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D17" t="n">
-        <v>117.1017119808265</v>
+        <v>133.8400063612326</v>
       </c>
       <c r="E17" t="n">
-        <v>162.6996767046497</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F17" t="n">
-        <v>206.8915509790075</v>
+        <v>223.6298453594137</v>
       </c>
       <c r="G17" t="n">
-        <v>235.1427496368175</v>
+        <v>251.7632228650384</v>
       </c>
       <c r="H17" t="n">
-        <v>164.5666925768761</v>
+        <v>180.098351082465</v>
       </c>
       <c r="I17" t="n">
-        <v>82.05160256401609</v>
+        <v>94.24759697480002</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>46.44683639615485</v>
+        <v>55.78404782560364</v>
       </c>
       <c r="S17" t="n">
-        <v>56.88026024196657</v>
+        <v>70.93370511695113</v>
       </c>
       <c r="T17" t="n">
-        <v>28.85700962735419</v>
+        <v>45.07954191406941</v>
       </c>
       <c r="U17" t="n">
-        <v>58.3582157486515</v>
+        <v>75.08708443688289</v>
       </c>
       <c r="V17" t="n">
-        <v>118.6891308685534</v>
+        <v>135.4274252489596</v>
       </c>
       <c r="W17" t="n">
-        <v>127.473210346902</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X17" t="n">
-        <v>151.9295880689897</v>
+        <v>168.6678824493949</v>
       </c>
       <c r="Y17" t="n">
-        <v>185.4705599845266</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="18">
@@ -23808,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.020583345960034</v>
+        <v>22.75887772636622</v>
       </c>
       <c r="C18" t="n">
-        <v>25.24232421921459</v>
+        <v>41.98061859962078</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7.960358402903012</v>
       </c>
       <c r="E18" t="n">
-        <v>8.397197869108197</v>
+        <v>25.13549224951439</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>11.34296322768401</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23859,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>32.09302580710823</v>
+        <v>47.66038217664871</v>
       </c>
       <c r="T18" t="n">
-        <v>51.2550405096805</v>
+        <v>67.73923995927547</v>
       </c>
       <c r="U18" t="n">
-        <v>68.44338284895298</v>
+        <v>85.17752986922622</v>
       </c>
       <c r="V18" t="n">
-        <v>65.55793860170715</v>
+        <v>82.29623298211334</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7968421419372</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X18" t="n">
-        <v>49.01782378648693</v>
+        <v>65.75611816689312</v>
       </c>
       <c r="Y18" t="n">
-        <v>66.43225345329148</v>
+        <v>83.17054783369767</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.7384405517100276</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.5988949867729332</v>
       </c>
       <c r="R19" t="n">
-        <v>48.597771297603</v>
+        <v>62.95971444188311</v>
       </c>
       <c r="S19" t="n">
-        <v>61.72801266683132</v>
+        <v>77.54526674807585</v>
       </c>
       <c r="T19" t="n">
-        <v>25.24595626512402</v>
+        <v>41.75843481840135</v>
       </c>
       <c r="U19" t="n">
-        <v>103.4044160156256</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V19" t="n">
-        <v>42.63089845407839</v>
+        <v>59.36919283448458</v>
       </c>
       <c r="W19" t="n">
-        <v>107.7444832740073</v>
+        <v>124.4827776544135</v>
       </c>
       <c r="X19" t="n">
-        <v>25.40299051526335</v>
+        <v>42.14128489566954</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.94508916828755</v>
+        <v>41.68338354869374</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>168.6305821736482</v>
+        <v>185.3688765540544</v>
       </c>
       <c r="C20" t="n">
-        <v>132.9287427806595</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D20" t="n">
-        <v>117.1017119808265</v>
+        <v>133.8400063612326</v>
       </c>
       <c r="E20" t="n">
-        <v>162.6996767046497</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F20" t="n">
-        <v>206.8915509790075</v>
+        <v>223.6298453594137</v>
       </c>
       <c r="G20" t="n">
-        <v>235.1427496368175</v>
+        <v>251.7632228650384</v>
       </c>
       <c r="H20" t="n">
-        <v>164.5666925768761</v>
+        <v>180.098351082465</v>
       </c>
       <c r="I20" t="n">
-        <v>82.05160256401609</v>
+        <v>94.24759697480002</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.44683639615485</v>
+        <v>55.78404782560364</v>
       </c>
       <c r="S20" t="n">
-        <v>56.88026024196657</v>
+        <v>70.93370511695113</v>
       </c>
       <c r="T20" t="n">
-        <v>28.85700962735419</v>
+        <v>45.07954191406941</v>
       </c>
       <c r="U20" t="n">
-        <v>58.3582157486515</v>
+        <v>75.08708443688289</v>
       </c>
       <c r="V20" t="n">
-        <v>118.6891308685534</v>
+        <v>135.4274252489596</v>
       </c>
       <c r="W20" t="n">
-        <v>127.473210346902</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X20" t="n">
-        <v>151.9295880689897</v>
+        <v>168.6678824493959</v>
       </c>
       <c r="Y20" t="n">
-        <v>185.4705599845266</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="21">
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.020583345960034</v>
+        <v>22.75887772636622</v>
       </c>
       <c r="C21" t="n">
-        <v>25.24232421921459</v>
+        <v>41.98061859962078</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>7.960358402903012</v>
       </c>
       <c r="E21" t="n">
-        <v>8.397197869108197</v>
+        <v>25.13549224951439</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>11.34296322768401</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>32.09302580710823</v>
+        <v>47.66038217664871</v>
       </c>
       <c r="T21" t="n">
-        <v>51.2550405096805</v>
+        <v>67.73923995927547</v>
       </c>
       <c r="U21" t="n">
-        <v>68.44338284895298</v>
+        <v>85.17752986922622</v>
       </c>
       <c r="V21" t="n">
-        <v>65.55793860170715</v>
+        <v>82.29623298211334</v>
       </c>
       <c r="W21" t="n">
-        <v>104.7968421419372</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X21" t="n">
-        <v>49.01782378648693</v>
+        <v>65.75611816689312</v>
       </c>
       <c r="Y21" t="n">
-        <v>66.43225345329148</v>
+        <v>83.17054783369767</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.7384405517100276</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24169,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.5988949867690678</v>
       </c>
       <c r="R22" t="n">
-        <v>48.597771297603</v>
+        <v>62.95971444188311</v>
       </c>
       <c r="S22" t="n">
-        <v>61.72801266683132</v>
+        <v>77.54526674807585</v>
       </c>
       <c r="T22" t="n">
-        <v>25.24595626512402</v>
+        <v>41.75843481840135</v>
       </c>
       <c r="U22" t="n">
-        <v>103.4044160156256</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V22" t="n">
-        <v>42.63089845407839</v>
+        <v>59.36919283448458</v>
       </c>
       <c r="W22" t="n">
-        <v>107.7444832740073</v>
+        <v>124.4827776544135</v>
       </c>
       <c r="X22" t="n">
-        <v>25.40299051526335</v>
+        <v>42.14128489566954</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.94508916828755</v>
+        <v>41.68338354869374</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>168.6305821736482</v>
+        <v>185.3688765540544</v>
       </c>
       <c r="C23" t="n">
-        <v>132.9287427806595</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D23" t="n">
-        <v>117.1017119808265</v>
+        <v>133.8400063612326</v>
       </c>
       <c r="E23" t="n">
-        <v>162.6996767046497</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F23" t="n">
-        <v>206.8915509790075</v>
+        <v>223.6298453594137</v>
       </c>
       <c r="G23" t="n">
-        <v>235.1427496368175</v>
+        <v>251.7632228650384</v>
       </c>
       <c r="H23" t="n">
-        <v>164.5666925768761</v>
+        <v>180.098351082465</v>
       </c>
       <c r="I23" t="n">
-        <v>82.05160256401609</v>
+        <v>94.24759697480002</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>46.44683639615485</v>
+        <v>55.78404782560364</v>
       </c>
       <c r="S23" t="n">
-        <v>56.88026024196657</v>
+        <v>70.93370511695113</v>
       </c>
       <c r="T23" t="n">
-        <v>28.85700962735419</v>
+        <v>45.07954191406941</v>
       </c>
       <c r="U23" t="n">
-        <v>58.3582157486515</v>
+        <v>75.08708443688289</v>
       </c>
       <c r="V23" t="n">
-        <v>118.6891308685534</v>
+        <v>135.4274252489596</v>
       </c>
       <c r="W23" t="n">
-        <v>127.473210346902</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X23" t="n">
-        <v>151.9295880689897</v>
+        <v>168.6678824493959</v>
       </c>
       <c r="Y23" t="n">
-        <v>185.4705599845266</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.020583345960034</v>
+        <v>22.75887772636622</v>
       </c>
       <c r="C24" t="n">
-        <v>25.24232421921459</v>
+        <v>41.98061859962078</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>7.960358402903012</v>
       </c>
       <c r="E24" t="n">
-        <v>8.397197869108197</v>
+        <v>25.13549224951439</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>11.34296322768401</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>32.09302580710823</v>
+        <v>47.66038217664871</v>
       </c>
       <c r="T24" t="n">
-        <v>51.2550405096805</v>
+        <v>67.73923995927547</v>
       </c>
       <c r="U24" t="n">
-        <v>68.44338284895298</v>
+        <v>85.17752986922622</v>
       </c>
       <c r="V24" t="n">
-        <v>65.55793860170715</v>
+        <v>82.29623298211334</v>
       </c>
       <c r="W24" t="n">
-        <v>104.7968421419372</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X24" t="n">
-        <v>49.01782378648693</v>
+        <v>65.75611816689312</v>
       </c>
       <c r="Y24" t="n">
-        <v>66.43225345329148</v>
+        <v>83.17054783369767</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.7384405517100276</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24406,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.5988949867729332</v>
       </c>
       <c r="R25" t="n">
-        <v>48.597771297603</v>
+        <v>62.95971444188311</v>
       </c>
       <c r="S25" t="n">
-        <v>61.72801266683132</v>
+        <v>77.54526674807585</v>
       </c>
       <c r="T25" t="n">
-        <v>25.24595626512402</v>
+        <v>41.75843481840135</v>
       </c>
       <c r="U25" t="n">
-        <v>103.4044160156256</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V25" t="n">
-        <v>42.63089845407839</v>
+        <v>59.36919283448458</v>
       </c>
       <c r="W25" t="n">
-        <v>107.7444832740073</v>
+        <v>124.4827776544135</v>
       </c>
       <c r="X25" t="n">
-        <v>25.40299051526335</v>
+        <v>42.14128489566954</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.94508916828755</v>
+        <v>41.68338354869374</v>
       </c>
     </row>
     <row r="26">
@@ -24440,40 +24442,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>185.8107864652428</v>
+        <v>256.0560378162363</v>
       </c>
       <c r="C26" t="n">
-        <v>150.1089470722541</v>
+        <v>220.3541984232475</v>
       </c>
       <c r="D26" t="n">
-        <v>134.2819162724211</v>
+        <v>204.5271676234145</v>
       </c>
       <c r="E26" t="n">
-        <v>179.8798809962443</v>
+        <v>250.1251323472377</v>
       </c>
       <c r="F26" t="n">
-        <v>224.0717552706021</v>
+        <v>294.3170066215955</v>
       </c>
       <c r="G26" t="n">
-        <v>252.3229539284121</v>
+        <v>322.4503841272203</v>
       </c>
       <c r="H26" t="n">
-        <v>181.7468968684707</v>
+        <v>250.7855123446468</v>
       </c>
       <c r="I26" t="n">
-        <v>99.2318068556107</v>
+        <v>267.0483538863648</v>
       </c>
       <c r="J26" t="n">
-        <v>139.7090537154</v>
+        <v>27.59553505073325</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>9.003846283283309</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>42.3873183015047</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -24485,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>49.84441729479462</v>
       </c>
       <c r="R26" t="n">
-        <v>63.62704068774946</v>
+        <v>156.0456897021456</v>
       </c>
       <c r="S26" t="n">
-        <v>74.06046453356117</v>
+        <v>141.620866379133</v>
       </c>
       <c r="T26" t="n">
-        <v>46.03721391894879</v>
+        <v>115.7667031762512</v>
       </c>
       <c r="U26" t="n">
-        <v>75.53842004024611</v>
+        <v>145.7742456990647</v>
       </c>
       <c r="V26" t="n">
-        <v>135.869335160148</v>
+        <v>206.1145865111415</v>
       </c>
       <c r="W26" t="n">
-        <v>144.6534146384966</v>
+        <v>214.89866598949</v>
       </c>
       <c r="X26" t="n">
-        <v>169.1097923605844</v>
+        <v>239.3550437115778</v>
       </c>
       <c r="Y26" t="n">
-        <v>202.6507642761212</v>
+        <v>272.8960156271147</v>
       </c>
     </row>
     <row r="27">
@@ -24519,31 +24521,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.20078763755464</v>
+        <v>93.44603898854804</v>
       </c>
       <c r="C27" t="n">
-        <v>42.4225285108092</v>
+        <v>112.6677798618026</v>
       </c>
       <c r="D27" t="n">
-        <v>8.40226831409143</v>
+        <v>78.64751966508483</v>
       </c>
       <c r="E27" t="n">
-        <v>25.5774021607028</v>
+        <v>95.8226535116962</v>
       </c>
       <c r="F27" t="n">
-        <v>11.78487313887243</v>
+        <v>82.03012448986583</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>67.20064167127886</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>44.4302758301597</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.90813455000055</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>6.028154105277792</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.90225268557117</v>
+        <v>70.23350203377476</v>
       </c>
       <c r="S27" t="n">
-        <v>49.27323009870284</v>
+        <v>118.3475434388305</v>
       </c>
       <c r="T27" t="n">
-        <v>68.4352448012751</v>
+        <v>138.4264012214573</v>
       </c>
       <c r="U27" t="n">
-        <v>85.62358714054758</v>
+        <v>155.8646911314081</v>
       </c>
       <c r="V27" t="n">
-        <v>82.73814289330176</v>
+        <v>152.9833942442951</v>
       </c>
       <c r="W27" t="n">
-        <v>121.9770464335318</v>
+        <v>192.2222977845252</v>
       </c>
       <c r="X27" t="n">
-        <v>66.19802807808153</v>
+        <v>136.4432794290749</v>
       </c>
       <c r="Y27" t="n">
-        <v>83.61245774488609</v>
+        <v>153.8577090958795</v>
       </c>
     </row>
     <row r="28">
@@ -24598,76 +24600,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.180350462898446</v>
+        <v>71.42560181389184</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>62.88992963488271</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>36.7495399611543</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>24.85811770171701</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>67.5427971881782</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>67.2118021337385</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8355480858474493</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>42.79111505230499</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>6.530607103905652</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>16.55081508079078</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.466314650479973</v>
+        <v>173.3996518983377</v>
       </c>
       <c r="R28" t="n">
-        <v>65.77797558919761</v>
+        <v>133.6468757040649</v>
       </c>
       <c r="S28" t="n">
-        <v>78.90821695842592</v>
+        <v>148.2324280102577</v>
       </c>
       <c r="T28" t="n">
-        <v>42.42616055671863</v>
+        <v>112.4455960805832</v>
       </c>
       <c r="U28" t="n">
-        <v>120.5846203072202</v>
+        <v>190.8269889029737</v>
       </c>
       <c r="V28" t="n">
-        <v>59.811102745673</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W28" t="n">
-        <v>124.9246875656019</v>
+        <v>195.1699389165954</v>
       </c>
       <c r="X28" t="n">
-        <v>42.58319480685796</v>
+        <v>112.8284461578514</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.12529345988216</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="29">
@@ -24677,34 +24679,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>168.6305821736483</v>
+        <v>256.0560378162363</v>
       </c>
       <c r="C29" t="n">
-        <v>132.9287427806595</v>
+        <v>220.3541984232475</v>
       </c>
       <c r="D29" t="n">
-        <v>117.1017119808265</v>
+        <v>262.4909405614234</v>
       </c>
       <c r="E29" t="n">
-        <v>162.6996767046497</v>
+        <v>250.1251323472377</v>
       </c>
       <c r="F29" t="n">
-        <v>206.8915509790075</v>
+        <v>294.3170066215955</v>
       </c>
       <c r="G29" t="n">
-        <v>235.1427496368195</v>
+        <v>322.4503841272203</v>
       </c>
       <c r="H29" t="n">
-        <v>164.5666925768761</v>
+        <v>250.7855123446468</v>
       </c>
       <c r="I29" t="n">
-        <v>82.05160256401612</v>
+        <v>164.9347582369818</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>27.59553505073325</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>9.003846283283309</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24722,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>49.84441729479461</v>
       </c>
       <c r="R29" t="n">
-        <v>46.44683639615488</v>
+        <v>126.4712090877855</v>
       </c>
       <c r="S29" t="n">
-        <v>56.8802602419666</v>
+        <v>141.620866379133</v>
       </c>
       <c r="T29" t="n">
-        <v>28.85700962735422</v>
+        <v>115.7667031762512</v>
       </c>
       <c r="U29" t="n">
-        <v>58.35821574865153</v>
+        <v>145.7742456990647</v>
       </c>
       <c r="V29" t="n">
-        <v>118.6891308685535</v>
+        <v>206.1145865111415</v>
       </c>
       <c r="W29" t="n">
-        <v>127.473210346902</v>
+        <v>214.89866598949</v>
       </c>
       <c r="X29" t="n">
-        <v>151.9295880689898</v>
+        <v>239.3550437115778</v>
       </c>
       <c r="Y29" t="n">
-        <v>185.4705599845267</v>
+        <v>272.8960156271147</v>
       </c>
     </row>
     <row r="30">
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.020583345960063</v>
+        <v>93.44603898854804</v>
       </c>
       <c r="C30" t="n">
-        <v>25.24232421921462</v>
+        <v>112.6677798618026</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>78.64751966508483</v>
       </c>
       <c r="E30" t="n">
-        <v>8.397197869108226</v>
+        <v>95.8226535116962</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>82.03012448986583</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>67.20064167127886</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>44.4302758301597</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.90813455000055</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.028154105277792</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>70.23350203377474</v>
       </c>
       <c r="S30" t="n">
-        <v>32.09302580710826</v>
+        <v>118.3475434388305</v>
       </c>
       <c r="T30" t="n">
-        <v>51.25504050968053</v>
+        <v>138.4264012214573</v>
       </c>
       <c r="U30" t="n">
-        <v>68.44338284895301</v>
+        <v>155.8646911314081</v>
       </c>
       <c r="V30" t="n">
-        <v>65.55793860170718</v>
+        <v>152.9833942442951</v>
       </c>
       <c r="W30" t="n">
-        <v>104.7968421419372</v>
+        <v>192.2222977845252</v>
       </c>
       <c r="X30" t="n">
-        <v>49.01782378648696</v>
+        <v>136.4432794290749</v>
       </c>
       <c r="Y30" t="n">
-        <v>66.43225345329151</v>
+        <v>153.8577090958795</v>
       </c>
     </row>
     <row r="31">
@@ -24835,34 +24837,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>71.42560181389184</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.7495399611543</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>67.5427971881782</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>67.2118021337385</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>6.530607103905652</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24877,34 +24879,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>16.55081508079078</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>71.28605624895475</v>
       </c>
       <c r="R31" t="n">
-        <v>48.59777129760303</v>
+        <v>235.7604713534479</v>
       </c>
       <c r="S31" t="n">
-        <v>61.72801266683135</v>
+        <v>148.2324280102576</v>
       </c>
       <c r="T31" t="n">
-        <v>25.24595626512405</v>
+        <v>214.5591917299661</v>
       </c>
       <c r="U31" t="n">
-        <v>103.4044160156256</v>
+        <v>292.9405845523567</v>
       </c>
       <c r="V31" t="n">
-        <v>42.63089845407842</v>
+        <v>130.0563540966664</v>
       </c>
       <c r="W31" t="n">
-        <v>107.7444832740074</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X31" t="n">
-        <v>25.40299051526338</v>
+        <v>112.8284461578514</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.94508916828758</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>168.6305821736483</v>
+        <v>202.3138436034929</v>
       </c>
       <c r="C32" t="n">
-        <v>132.9287427806595</v>
+        <v>166.6120042105041</v>
       </c>
       <c r="D32" t="n">
-        <v>117.1017119808265</v>
+        <v>150.7849734106711</v>
       </c>
       <c r="E32" t="n">
-        <v>162.6996767046497</v>
+        <v>196.3829381344943</v>
       </c>
       <c r="F32" t="n">
-        <v>206.8915509790075</v>
+        <v>240.5748124088521</v>
       </c>
       <c r="G32" t="n">
-        <v>235.1427496368176</v>
+        <v>268.7081899144769</v>
       </c>
       <c r="H32" t="n">
-        <v>164.5666925768761</v>
+        <v>197.0433181319035</v>
       </c>
       <c r="I32" t="n">
-        <v>82.05160256401612</v>
+        <v>111.1925640242385</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>46.44683639615488</v>
+        <v>72.72901487504205</v>
       </c>
       <c r="S32" t="n">
-        <v>56.8802602419666</v>
+        <v>87.87867216638958</v>
       </c>
       <c r="T32" t="n">
-        <v>28.85700962735422</v>
+        <v>62.02450896350786</v>
       </c>
       <c r="U32" t="n">
-        <v>58.35821574865153</v>
+        <v>92.03205148632134</v>
       </c>
       <c r="V32" t="n">
-        <v>118.6891308685535</v>
+        <v>152.3723922983981</v>
       </c>
       <c r="W32" t="n">
-        <v>127.473210346902</v>
+        <v>161.1564717767466</v>
       </c>
       <c r="X32" t="n">
-        <v>151.9295880689898</v>
+        <v>185.6128494988344</v>
       </c>
       <c r="Y32" t="n">
-        <v>185.4705599845267</v>
+        <v>219.1538214143713</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.020583345960063</v>
+        <v>39.70384477580467</v>
       </c>
       <c r="C33" t="n">
-        <v>25.24232421921462</v>
+        <v>58.92558564905923</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>24.90532545234146</v>
       </c>
       <c r="E33" t="n">
-        <v>8.397197869108226</v>
+        <v>42.08045929895283</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>28.28793027712246</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>13.45844745853549</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>16.49130782103137</v>
       </c>
       <c r="S33" t="n">
-        <v>32.09302580710826</v>
+        <v>64.60534922608716</v>
       </c>
       <c r="T33" t="n">
-        <v>51.25504050968053</v>
+        <v>84.68420700871391</v>
       </c>
       <c r="U33" t="n">
-        <v>68.44338284895301</v>
+        <v>102.1224969186647</v>
       </c>
       <c r="V33" t="n">
-        <v>65.55793860170718</v>
+        <v>99.24120003155178</v>
       </c>
       <c r="W33" t="n">
-        <v>104.7968421419372</v>
+        <v>138.4801035717818</v>
       </c>
       <c r="X33" t="n">
-        <v>49.01782378648696</v>
+        <v>82.70108521633156</v>
       </c>
       <c r="Y33" t="n">
-        <v>66.43225345329151</v>
+        <v>100.1155148831361</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>17.68340760114847</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>9.147735422139334</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>45.00598571667392</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>13.80060297543483</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>13.46960792099512</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25105,7 +25107,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>89.48026908651903</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -25117,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>17.54386203621138</v>
       </c>
       <c r="R34" t="n">
-        <v>48.59777129760303</v>
+        <v>79.90468149132155</v>
       </c>
       <c r="S34" t="n">
-        <v>61.72801266683135</v>
+        <v>94.49023379751429</v>
       </c>
       <c r="T34" t="n">
-        <v>25.24595626512405</v>
+        <v>58.7034018678398</v>
       </c>
       <c r="U34" t="n">
-        <v>103.4044160156256</v>
+        <v>292.9405845523567</v>
       </c>
       <c r="V34" t="n">
-        <v>42.63089845407842</v>
+        <v>76.31415988392303</v>
       </c>
       <c r="W34" t="n">
-        <v>107.7444832740074</v>
+        <v>141.427744703852</v>
       </c>
       <c r="X34" t="n">
-        <v>25.40299051526338</v>
+        <v>59.08625194510799</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.94508916828758</v>
+        <v>58.62835059813219</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>168.6305821736483</v>
+        <v>202.3138436034929</v>
       </c>
       <c r="C35" t="n">
-        <v>132.9287427806595</v>
+        <v>166.6120042105041</v>
       </c>
       <c r="D35" t="n">
-        <v>117.1017119808265</v>
+        <v>150.7849734106711</v>
       </c>
       <c r="E35" t="n">
-        <v>162.6996767046497</v>
+        <v>196.3829381344943</v>
       </c>
       <c r="F35" t="n">
-        <v>206.8915509790075</v>
+        <v>240.5748124088521</v>
       </c>
       <c r="G35" t="n">
-        <v>235.1427496368176</v>
+        <v>268.7081899144769</v>
       </c>
       <c r="H35" t="n">
-        <v>164.5666925768761</v>
+        <v>197.0433181319035</v>
       </c>
       <c r="I35" t="n">
-        <v>82.05160256401612</v>
+        <v>111.1925640242385</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>46.44683639615488</v>
+        <v>72.72901487504208</v>
       </c>
       <c r="S35" t="n">
-        <v>56.8802602419666</v>
+        <v>87.87867216638958</v>
       </c>
       <c r="T35" t="n">
-        <v>28.85700962735422</v>
+        <v>196.5565193737934</v>
       </c>
       <c r="U35" t="n">
-        <v>58.35821574865153</v>
+        <v>92.03205148632134</v>
       </c>
       <c r="V35" t="n">
-        <v>118.6891308685535</v>
+        <v>152.3723922983981</v>
       </c>
       <c r="W35" t="n">
-        <v>127.473210346902</v>
+        <v>161.1564717767466</v>
       </c>
       <c r="X35" t="n">
-        <v>151.9295880689898</v>
+        <v>185.6128494988344</v>
       </c>
       <c r="Y35" t="n">
-        <v>185.4705599845267</v>
+        <v>219.1538214143713</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.020583345960063</v>
+        <v>39.70384477580467</v>
       </c>
       <c r="C36" t="n">
-        <v>25.24232421921462</v>
+        <v>58.92558564905923</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>24.90532545234146</v>
       </c>
       <c r="E36" t="n">
-        <v>8.397197869108226</v>
+        <v>42.08045929895283</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>28.28793027712246</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>13.45844745853549</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>16.49130782103137</v>
       </c>
       <c r="S36" t="n">
-        <v>32.09302580710826</v>
+        <v>64.60534922608716</v>
       </c>
       <c r="T36" t="n">
-        <v>51.25504050968053</v>
+        <v>84.68420700871391</v>
       </c>
       <c r="U36" t="n">
-        <v>68.44338284895301</v>
+        <v>102.1224969186647</v>
       </c>
       <c r="V36" t="n">
-        <v>65.55793860170718</v>
+        <v>99.24120003155178</v>
       </c>
       <c r="W36" t="n">
-        <v>104.7968421419372</v>
+        <v>138.4801035717818</v>
       </c>
       <c r="X36" t="n">
-        <v>49.01782378648696</v>
+        <v>82.70108521633156</v>
       </c>
       <c r="Y36" t="n">
-        <v>66.43225345329151</v>
+        <v>100.1155148831361</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>17.68340760114847</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>9.147735422139334</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>13.80060297543483</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>13.46960792099512</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>15.74924616847576</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.54386203621138</v>
       </c>
       <c r="R37" t="n">
-        <v>48.59777129760303</v>
+        <v>79.90468149132155</v>
       </c>
       <c r="S37" t="n">
-        <v>61.72801266683135</v>
+        <v>94.49023379751429</v>
       </c>
       <c r="T37" t="n">
-        <v>25.24595626512405</v>
+        <v>58.7034018678398</v>
       </c>
       <c r="U37" t="n">
-        <v>103.4044160156256</v>
+        <v>137.0847946902303</v>
       </c>
       <c r="V37" t="n">
-        <v>42.63089845407842</v>
+        <v>76.31415988392303</v>
       </c>
       <c r="W37" t="n">
-        <v>107.7444832740074</v>
+        <v>141.427744703852</v>
       </c>
       <c r="X37" t="n">
-        <v>25.40299051526338</v>
+        <v>59.08625194510799</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.94508916828758</v>
+        <v>58.62835059813219</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>168.6305821736483</v>
+        <v>202.3138436034929</v>
       </c>
       <c r="C38" t="n">
-        <v>132.9287427806595</v>
+        <v>166.6120042105041</v>
       </c>
       <c r="D38" t="n">
-        <v>117.1017119808265</v>
+        <v>150.7849734106711</v>
       </c>
       <c r="E38" t="n">
-        <v>162.6996767046497</v>
+        <v>196.3829381344943</v>
       </c>
       <c r="F38" t="n">
-        <v>206.8915509790075</v>
+        <v>240.5748124088521</v>
       </c>
       <c r="G38" t="n">
-        <v>235.1427496368176</v>
+        <v>268.7081899144769</v>
       </c>
       <c r="H38" t="n">
-        <v>164.5666925768761</v>
+        <v>197.0433181319035</v>
       </c>
       <c r="I38" t="n">
-        <v>82.05160256401612</v>
+        <v>111.1925640242385</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25424,7 +25426,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.016076112136943e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>46.44683639615488</v>
+        <v>72.72901487504208</v>
       </c>
       <c r="S38" t="n">
-        <v>56.8802602419666</v>
+        <v>87.87867216638958</v>
       </c>
       <c r="T38" t="n">
-        <v>28.85700962735422</v>
+        <v>62.02450896350786</v>
       </c>
       <c r="U38" t="n">
-        <v>58.35821574865153</v>
+        <v>92.03205148632134</v>
       </c>
       <c r="V38" t="n">
-        <v>118.6891308685535</v>
+        <v>152.3723922983981</v>
       </c>
       <c r="W38" t="n">
-        <v>127.473210346902</v>
+        <v>161.1564717767466</v>
       </c>
       <c r="X38" t="n">
-        <v>151.9295880689898</v>
+        <v>185.6128494988344</v>
       </c>
       <c r="Y38" t="n">
-        <v>185.4705599845267</v>
+        <v>219.1538214143713</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.020583345960063</v>
+        <v>39.70384477580467</v>
       </c>
       <c r="C39" t="n">
-        <v>25.24232421921462</v>
+        <v>58.92558564905923</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>24.90532545234146</v>
       </c>
       <c r="E39" t="n">
-        <v>8.397197869108226</v>
+        <v>42.08045929895283</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>28.28793027712246</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>13.45844745853549</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>16.49130782103137</v>
       </c>
       <c r="S39" t="n">
-        <v>32.09302580710826</v>
+        <v>64.60534922608716</v>
       </c>
       <c r="T39" t="n">
-        <v>51.25504050968053</v>
+        <v>84.68420700871391</v>
       </c>
       <c r="U39" t="n">
-        <v>68.44338284895301</v>
+        <v>102.1224969186647</v>
       </c>
       <c r="V39" t="n">
-        <v>65.55793860170718</v>
+        <v>99.24120003155178</v>
       </c>
       <c r="W39" t="n">
-        <v>104.7968421419372</v>
+        <v>138.4801035717818</v>
       </c>
       <c r="X39" t="n">
-        <v>49.01782378648696</v>
+        <v>82.70108521633156</v>
       </c>
       <c r="Y39" t="n">
-        <v>66.43225345329151</v>
+        <v>100.1155148831361</v>
       </c>
     </row>
     <row r="40">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>17.68340760114847</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>9.147735422139334</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>148.2868577786272</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>13.46960792099512</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>15.74924616847576</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>173.3996518983377</v>
       </c>
       <c r="R40" t="n">
-        <v>48.59777129760303</v>
+        <v>79.90468149132155</v>
       </c>
       <c r="S40" t="n">
-        <v>61.72801266683135</v>
+        <v>250.3460236596406</v>
       </c>
       <c r="T40" t="n">
-        <v>25.24595626512405</v>
+        <v>58.7034018678398</v>
       </c>
       <c r="U40" t="n">
-        <v>103.4044160156256</v>
+        <v>137.0847946902303</v>
       </c>
       <c r="V40" t="n">
-        <v>42.63089845407842</v>
+        <v>76.31415988392303</v>
       </c>
       <c r="W40" t="n">
-        <v>107.7444832740074</v>
+        <v>141.427744703852</v>
       </c>
       <c r="X40" t="n">
-        <v>25.40299051526338</v>
+        <v>59.08625194510799</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.94508916828758</v>
+        <v>58.62835059813219</v>
       </c>
     </row>
     <row r="41">
@@ -25625,37 +25627,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>168.6305821736483</v>
+        <v>304.4274392528758</v>
       </c>
       <c r="C41" t="n">
-        <v>132.9287427806595</v>
+        <v>268.7255998598871</v>
       </c>
       <c r="D41" t="n">
-        <v>117.1017119808265</v>
+        <v>252.8985690600541</v>
       </c>
       <c r="E41" t="n">
-        <v>162.6996767046497</v>
+        <v>298.4965337838773</v>
       </c>
       <c r="F41" t="n">
-        <v>206.8915509790075</v>
+        <v>342.6884080582351</v>
       </c>
       <c r="G41" t="n">
-        <v>235.1427496368176</v>
+        <v>370.8217855638599</v>
       </c>
       <c r="H41" t="n">
-        <v>164.5666925768761</v>
+        <v>299.1569137812864</v>
       </c>
       <c r="I41" t="n">
-        <v>82.05160256401612</v>
+        <v>213.3061596736214</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>75.96693648737282</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>57.37524771992288</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>23.53774442434916</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25667,34 +25669,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>43.31589837459113</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>98.2158187314342</v>
       </c>
       <c r="R41" t="n">
-        <v>46.44683639615488</v>
+        <v>174.842610524425</v>
       </c>
       <c r="S41" t="n">
-        <v>56.8802602419666</v>
+        <v>213.2393645453097</v>
       </c>
       <c r="T41" t="n">
-        <v>28.85700962735422</v>
+        <v>164.1381046128908</v>
       </c>
       <c r="U41" t="n">
-        <v>58.35821574865153</v>
+        <v>194.1456471357043</v>
       </c>
       <c r="V41" t="n">
-        <v>118.6891308685535</v>
+        <v>254.485987947781</v>
       </c>
       <c r="W41" t="n">
-        <v>127.473210346902</v>
+        <v>263.2700674261296</v>
       </c>
       <c r="X41" t="n">
-        <v>151.9295880689898</v>
+        <v>287.7264451482174</v>
       </c>
       <c r="Y41" t="n">
-        <v>185.4705599845267</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="42">
@@ -25704,34 +25706,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.020583345960063</v>
+        <v>141.8174404251876</v>
       </c>
       <c r="C42" t="n">
-        <v>25.24232421921462</v>
+        <v>161.0391812984422</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>127.0189211017244</v>
       </c>
       <c r="E42" t="n">
-        <v>8.397197869108226</v>
+        <v>144.1940549483358</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>130.4015259265054</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>115.5720431079184</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>92.80167726679927</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>72.27953598664014</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>54.39955554191738</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2.804846159214449</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25743,37 +25745,37 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>3.200995024599251e-12</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>41.36194612963489</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.6049034704143</v>
       </c>
       <c r="S42" t="n">
-        <v>32.09302580710826</v>
+        <v>166.7189448754701</v>
       </c>
       <c r="T42" t="n">
-        <v>51.25504050968053</v>
+        <v>186.7978026580969</v>
       </c>
       <c r="U42" t="n">
-        <v>68.44338284895301</v>
+        <v>204.2360925680476</v>
       </c>
       <c r="V42" t="n">
-        <v>65.55793860170718</v>
+        <v>201.3547956809347</v>
       </c>
       <c r="W42" t="n">
-        <v>104.7968421419372</v>
+        <v>240.5936992211648</v>
       </c>
       <c r="X42" t="n">
-        <v>49.01782378648696</v>
+        <v>184.8146808657145</v>
       </c>
       <c r="Y42" t="n">
-        <v>66.43225345329151</v>
+        <v>202.2291105325191</v>
       </c>
     </row>
     <row r="43">
@@ -25783,76 +25785,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>119.7970032505314</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>85.12094139779389</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>115.9141986248178</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.5832035703781</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.8628418178587</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>54.90200854054524</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>35.73807487377569</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>48.37140143663959</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>64.92221651743037</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>119.6574576855943</v>
       </c>
       <c r="R43" t="n">
-        <v>48.59777129760303</v>
+        <v>235.7604713534479</v>
       </c>
       <c r="S43" t="n">
-        <v>61.72801266683135</v>
+        <v>250.3460236596406</v>
       </c>
       <c r="T43" t="n">
-        <v>25.24595626512405</v>
+        <v>214.5591917299661</v>
       </c>
       <c r="U43" t="n">
-        <v>103.4044160156256</v>
+        <v>239.1983903396133</v>
       </c>
       <c r="V43" t="n">
-        <v>42.63089845407842</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W43" t="n">
-        <v>107.7444832740074</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X43" t="n">
-        <v>25.40299051526338</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.94508916828758</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="44">
@@ -25862,76 +25864,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.1696334656192</v>
+        <v>304.4274392528758</v>
       </c>
       <c r="C44" t="n">
-        <v>322.4677940726305</v>
+        <v>268.7255998598871</v>
       </c>
       <c r="D44" t="n">
         <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>352.2387279966206</v>
+        <v>298.4965337838773</v>
       </c>
       <c r="F44" t="n">
-        <v>396.4306022709785</v>
+        <v>342.6884080582351</v>
       </c>
       <c r="G44" t="n">
-        <v>424.6818009287885</v>
+        <v>370.8217855638599</v>
       </c>
       <c r="H44" t="n">
-        <v>354.1057438688471</v>
+        <v>299.1569137812864</v>
       </c>
       <c r="I44" t="n">
-        <v>271.5906538559871</v>
+        <v>213.3061596736214</v>
       </c>
       <c r="J44" t="n">
-        <v>139.7090537154</v>
+        <v>75.96693648737282</v>
       </c>
       <c r="K44" t="n">
-        <v>126.1047343199522</v>
+        <v>57.37524771992288</v>
       </c>
       <c r="L44" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M44" t="n">
-        <v>54.69452290108308</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O44" t="n">
-        <v>67.21973758497694</v>
+        <v>42.17426948930461</v>
       </c>
       <c r="P44" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.6813718922237</v>
+        <v>98.2158187314342</v>
       </c>
       <c r="R44" t="n">
-        <v>235.9858876881258</v>
+        <v>174.842610524425</v>
       </c>
       <c r="S44" t="n">
-        <v>246.4193115339375</v>
+        <v>189.9922678157725</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3960609193252</v>
+        <v>164.1381046128908</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8972670406225</v>
+        <v>194.1456471357043</v>
       </c>
       <c r="V44" t="n">
-        <v>308.2281821605244</v>
+        <v>254.485987947781</v>
       </c>
       <c r="W44" t="n">
-        <v>317.0122616388729</v>
+        <v>263.2700674261296</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4686393609607</v>
+        <v>287.7264451482174</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.0096112764976</v>
+        <v>321.2674170637542</v>
       </c>
     </row>
     <row r="45">
@@ -25941,37 +25943,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>195.559634637931</v>
+        <v>141.8174404251876</v>
       </c>
       <c r="C45" t="n">
-        <v>214.7813755111856</v>
+        <v>161.0391812984422</v>
       </c>
       <c r="D45" t="n">
-        <v>180.7611153144678</v>
+        <v>127.0189211017244</v>
       </c>
       <c r="E45" t="n">
-        <v>197.9362491610792</v>
+        <v>144.1940549483358</v>
       </c>
       <c r="F45" t="n">
-        <v>184.1437201392488</v>
+        <v>130.4015259265054</v>
       </c>
       <c r="G45" t="n">
-        <v>169.3772771946824</v>
+        <v>115.5720431079184</v>
       </c>
       <c r="H45" t="n">
-        <v>147.1527039470577</v>
+        <v>92.80167726679927</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1921820022869</v>
+        <v>72.27953598664014</v>
       </c>
       <c r="J45" t="n">
-        <v>114.0976353962329</v>
+        <v>54.39955554191738</v>
       </c>
       <c r="K45" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L45" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25983,34 +25985,34 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>31.73356832861344</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1511249629769</v>
+        <v>41.36194612963489</v>
       </c>
       <c r="R45" t="n">
-        <v>176.2610996859475</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S45" t="n">
-        <v>221.6320770990792</v>
+        <v>166.7189448754701</v>
       </c>
       <c r="T45" t="n">
-        <v>240.7940918016515</v>
+        <v>186.7978026580969</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9824341409239</v>
+        <v>204.2360925680476</v>
       </c>
       <c r="V45" t="n">
-        <v>255.0969898936781</v>
+        <v>201.3547956809347</v>
       </c>
       <c r="W45" t="n">
-        <v>294.3358934339082</v>
+        <v>240.5936992211648</v>
       </c>
       <c r="X45" t="n">
-        <v>238.5568750784579</v>
+        <v>184.8146808657145</v>
       </c>
       <c r="Y45" t="n">
-        <v>255.9713047452624</v>
+        <v>202.2291105325191</v>
       </c>
     </row>
     <row r="46">
@@ -26020,76 +26022,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.5391974632748</v>
+        <v>119.7970032505314</v>
       </c>
       <c r="C46" t="n">
-        <v>165.0035252842657</v>
+        <v>111.2613310715223</v>
       </c>
       <c r="D46" t="n">
-        <v>138.8631356105373</v>
+        <v>85.12094139779389</v>
       </c>
       <c r="E46" t="n">
-        <v>132.9174244808186</v>
+        <v>79.17523026807523</v>
       </c>
       <c r="F46" t="n">
-        <v>126.9717133511</v>
+        <v>73.22951913835659</v>
       </c>
       <c r="G46" t="n">
-        <v>169.7092433502934</v>
+        <v>115.9141986248178</v>
       </c>
       <c r="H46" t="n">
-        <v>169.7952868872321</v>
+        <v>115.5832035703781</v>
       </c>
       <c r="I46" t="n">
-        <v>173.1943950862238</v>
+        <v>117.8628418178587</v>
       </c>
       <c r="J46" t="n">
-        <v>148.6412419518603</v>
+        <v>91.16251648894458</v>
       </c>
       <c r="K46" t="n">
-        <v>114.7844714143665</v>
+        <v>54.90200854054524</v>
       </c>
       <c r="L46" t="n">
-        <v>97.79680524136499</v>
+        <v>36.19718116295125</v>
       </c>
       <c r="M46" t="n">
-        <v>97.7648271869076</v>
+        <v>35.73807487377569</v>
       </c>
       <c r="N46" t="n">
-        <v>82.54274397298506</v>
+        <v>20.71297993458255</v>
       </c>
       <c r="O46" t="n">
-        <v>109.5837753944877</v>
+        <v>48.37140143663959</v>
       </c>
       <c r="P46" t="n">
-        <v>125.0564400155399</v>
+        <v>64.92221651743037</v>
       </c>
       <c r="Q46" t="n">
-        <v>177.8251616508563</v>
+        <v>119.6574576855943</v>
       </c>
       <c r="R46" t="n">
-        <v>238.136822589574</v>
+        <v>182.0182771407045</v>
       </c>
       <c r="S46" t="n">
-        <v>251.2670639588023</v>
+        <v>196.6038294468972</v>
       </c>
       <c r="T46" t="n">
-        <v>214.785007557095</v>
+        <v>160.8169975172228</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9434673075966</v>
+        <v>239.1983903396133</v>
       </c>
       <c r="V46" t="n">
-        <v>232.1699497460494</v>
+        <v>178.427755533306</v>
       </c>
       <c r="W46" t="n">
-        <v>297.2835345659783</v>
+        <v>243.5413403532349</v>
       </c>
       <c r="X46" t="n">
-        <v>214.9420418072343</v>
+        <v>161.199847594491</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.4841404602585</v>
+        <v>160.7419462475152</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>274077.5836536367</v>
+        <v>658391.4363902484</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>684760.4555783735</v>
+        <v>658391.4363902485</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684760.4555783735</v>
+        <v>658391.4363902485</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>684760.4555783735</v>
+        <v>658391.4363902485</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684760.4555783735</v>
+        <v>658391.4363902484</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643824.8392087054</v>
+        <v>489963.7235076223</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>684760.4555783732</v>
+        <v>489963.7235076224</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>684760.4555783734</v>
+        <v>618016.3245022102</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>684760.4555783734</v>
+        <v>618016.3245022102</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684760.4555783734</v>
+        <v>618016.3245022102</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684760.4555783733</v>
+        <v>374708.2178765126</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>233141.9672839685</v>
+        <v>374708.2178765126</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>897292.1148212295</v>
+        <v>897292.1148212297</v>
       </c>
       <c r="C2" t="n">
+        <v>897292.1148212296</v>
+      </c>
+      <c r="D2" t="n">
         <v>897292.1148212294</v>
       </c>
-      <c r="D2" t="n">
-        <v>897292.1148212295</v>
-      </c>
       <c r="E2" t="n">
-        <v>290199.7944567915</v>
+        <v>697120.3444132034</v>
       </c>
       <c r="F2" t="n">
-        <v>725040.4823771011</v>
+        <v>697120.3444132034</v>
       </c>
       <c r="G2" t="n">
-        <v>725040.482377101</v>
+        <v>697120.3444132033</v>
       </c>
       <c r="H2" t="n">
-        <v>725040.482377101</v>
+        <v>697120.3444132035</v>
       </c>
       <c r="I2" t="n">
-        <v>725040.4823771011</v>
+        <v>697120.3444132034</v>
       </c>
       <c r="J2" t="n">
-        <v>681696.8885739236</v>
+        <v>518785.1190080708</v>
       </c>
       <c r="K2" t="n">
-        <v>725040.482377101</v>
+        <v>518785.1190080708</v>
       </c>
       <c r="L2" t="n">
-        <v>725040.4823771011</v>
+        <v>654370.2259435159</v>
       </c>
       <c r="M2" t="n">
-        <v>725040.4823771011</v>
+        <v>654370.2259435157</v>
       </c>
       <c r="N2" t="n">
-        <v>725040.482377101</v>
+        <v>654370.2259435158</v>
       </c>
       <c r="O2" t="n">
-        <v>725040.4823771007</v>
+        <v>396749.877751602</v>
       </c>
       <c r="P2" t="n">
-        <v>246856.2006536138</v>
+        <v>396749.8777516022</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377512.6236543506</v>
+        <v>525555.2101986891</v>
       </c>
       <c r="F3" t="n">
-        <v>137887.0776003011</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>81690.87651950636</v>
       </c>
       <c r="K3" t="n">
-        <v>151631.2410335767</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42993.75537019469</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>27487.88475517243</v>
+        <v>276476.7642440409</v>
       </c>
       <c r="F4" t="n">
-        <v>303257.6045133186</v>
+        <v>276476.7642440408</v>
       </c>
       <c r="G4" t="n">
-        <v>303257.6045133186</v>
+        <v>276476.7642440408</v>
       </c>
       <c r="H4" t="n">
-        <v>303257.6045133186</v>
+        <v>276476.7642440408</v>
       </c>
       <c r="I4" t="n">
-        <v>303257.6045133186</v>
+        <v>276476.7642440408</v>
       </c>
       <c r="J4" t="n">
-        <v>275769.7197581461</v>
+        <v>163379.125271507</v>
       </c>
       <c r="K4" t="n">
-        <v>303257.6045133184</v>
+        <v>163379.125271507</v>
       </c>
       <c r="L4" t="n">
-        <v>303257.6045133185</v>
+        <v>249365.2530227778</v>
       </c>
       <c r="M4" t="n">
-        <v>303257.6045133185</v>
+        <v>249365.2530227778</v>
       </c>
       <c r="N4" t="n">
-        <v>303257.6045133185</v>
+        <v>249365.2530227778</v>
       </c>
       <c r="O4" t="n">
-        <v>303257.6045133184</v>
+        <v>85986.12775127079</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>85986.12775127076</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>11315.02563256657</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="F5" t="n">
-        <v>25805.06154104121</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="G5" t="n">
-        <v>25805.06154104121</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="H5" t="n">
-        <v>25805.06154104121</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="I5" t="n">
-        <v>25805.06154104121</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="J5" t="n">
-        <v>24360.73894645114</v>
+        <v>19094.2055636371</v>
       </c>
       <c r="K5" t="n">
-        <v>25805.0615410412</v>
+        <v>19094.2055636371</v>
       </c>
       <c r="L5" t="n">
-        <v>25805.0615410412</v>
+        <v>23612.25808890822</v>
       </c>
       <c r="M5" t="n">
-        <v>25805.0615410412</v>
+        <v>23612.25808890822</v>
       </c>
       <c r="N5" t="n">
-        <v>25805.0615410412</v>
+        <v>23612.25808890822</v>
       </c>
       <c r="O5" t="n">
-        <v>25805.0615410412</v>
+        <v>15027.67021626025</v>
       </c>
       <c r="P5" t="n">
-        <v>9870.703037976498</v>
+        <v>15027.67021626025</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>294614.7411468935</v>
+      </c>
+      <c r="C6" t="n">
         <v>294614.7411468934</v>
       </c>
-      <c r="C6" t="n">
-        <v>294614.7411468932</v>
-      </c>
       <c r="D6" t="n">
-        <v>294614.7411468934</v>
+        <v>294614.7411468931</v>
       </c>
       <c r="E6" t="n">
-        <v>-126115.7395852981</v>
+        <v>-129948.434553314</v>
       </c>
       <c r="F6" t="n">
-        <v>258090.7387224402</v>
+        <v>395606.7756453751</v>
       </c>
       <c r="G6" t="n">
-        <v>395977.8163227412</v>
+        <v>395606.775645375</v>
       </c>
       <c r="H6" t="n">
-        <v>395977.8163227412</v>
+        <v>395606.7756453753</v>
       </c>
       <c r="I6" t="n">
-        <v>395977.8163227413</v>
+        <v>395606.7756453752</v>
       </c>
       <c r="J6" t="n">
-        <v>381566.4298693264</v>
+        <v>254620.9116534204</v>
       </c>
       <c r="K6" t="n">
-        <v>244346.5752891646</v>
+        <v>336311.7881729268</v>
       </c>
       <c r="L6" t="n">
-        <v>395977.8163227414</v>
+        <v>338398.9594616352</v>
       </c>
       <c r="M6" t="n">
-        <v>395977.8163227414</v>
+        <v>381392.7148318297</v>
       </c>
       <c r="N6" t="n">
-        <v>395977.8163227413</v>
+        <v>381392.7148318297</v>
       </c>
       <c r="O6" t="n">
-        <v>395977.8163227412</v>
+        <v>295736.079784071</v>
       </c>
       <c r="P6" t="n">
-        <v>236985.4976156373</v>
+        <v>295736.0797840712</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F2" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G2" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="H2" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="I2" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="J2" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="K2" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="L2" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="M2" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="N2" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="O2" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="F3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="G3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="H3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="I3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="J3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="K3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="L3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="M3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="N3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="O3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="P3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F2" t="n">
-        <v>172.3588470003764</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>102.113595649383</v>
       </c>
       <c r="K2" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.74219421274336</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.7845430264449</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="K2" t="n">
-        <v>172.3588470003764</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P2" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L11" t="n">
-        <v>15.50090863528514</v>
+        <v>77.27993863709412</v>
       </c>
       <c r="M11" t="n">
-        <v>17.18020429159461</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N11" t="n">
-        <v>17.18020429159461</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O11" t="n">
-        <v>17.18020429159461</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P11" t="n">
-        <v>17.18020429159461</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q11" t="n">
-        <v>17.18020429159461</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="12">
@@ -28166,37 +28168,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G12" t="n">
-        <v>17.18020429159461</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H12" t="n">
-        <v>17.18020429159461</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I12" t="n">
-        <v>17.18020429159461</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J12" t="n">
-        <v>17.18020429159461</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K12" t="n">
-        <v>17.18020429159461</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L12" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -28208,34 +28210,34 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>17.18020429159461</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.18020429159461</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C13" t="n">
-        <v>17.18020429159461</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D13" t="n">
-        <v>17.18020429159461</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E13" t="n">
-        <v>17.18020429159461</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F13" t="n">
-        <v>17.18020429159461</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>17.18020429159461</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H13" t="n">
-        <v>17.18020429159461</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I13" t="n">
-        <v>17.18020429159461</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J13" t="n">
-        <v>17.18020429159461</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K13" t="n">
-        <v>17.18020429159461</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L13" t="n">
-        <v>17.18020429159461</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M13" t="n">
-        <v>17.18020429159461</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N13" t="n">
-        <v>17.18020429159461</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O13" t="n">
-        <v>17.18020429159461</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P13" t="n">
-        <v>17.18020429159461</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="R13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.18020429159461</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115658</v>
       </c>
       <c r="G14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="H14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="I14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="J14" t="n">
-        <v>139.7090537154</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K14" t="n">
-        <v>126.1047343199522</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L14" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M14" t="n">
-        <v>54.69452290108308</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N14" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O14" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P14" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.6813718922237</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y14" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="15">
@@ -28403,37 +28405,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D15" t="n">
-        <v>180.7611153144678</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F15" t="n">
-        <v>184.1437201392488</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G15" t="n">
-        <v>169.3772771946824</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H15" t="n">
-        <v>147.1527039470577</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I15" t="n">
-        <v>128.1921820022869</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J15" t="n">
-        <v>114.0976353962329</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K15" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L15" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -28445,34 +28447,34 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>31.73356832861344</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.1511249629769</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R15" t="n">
-        <v>176.2610996859475</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y15" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28484,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.5391974632748</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C16" t="n">
         <v>165.0035252842657</v>
@@ -28497,61 +28499,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.7092433502934</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H16" t="n">
-        <v>169.7952868872321</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I16" t="n">
-        <v>173.1943950862238</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J16" t="n">
-        <v>148.6412419518603</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K16" t="n">
-        <v>114.7844714143665</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L16" t="n">
-        <v>97.79680524136499</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M16" t="n">
-        <v>97.7648271869076</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N16" t="n">
-        <v>82.54274397298506</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O16" t="n">
-        <v>109.5837753944877</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P16" t="n">
-        <v>125.0564400155399</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.8251616508558</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="R16" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S16" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T16" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U16" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V16" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W16" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X16" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="H17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="I17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="J17" t="n">
-        <v>139.7090537154</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K17" t="n">
-        <v>126.1047343199521</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L17" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M17" t="n">
-        <v>54.69452290108308</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N17" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O17" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P17" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q17" t="n">
-        <v>164.6813718922237</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115658</v>
       </c>
       <c r="Y17" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="18">
@@ -28640,37 +28642,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D18" t="n">
-        <v>180.7611153144678</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F18" t="n">
-        <v>184.1437201392488</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G18" t="n">
-        <v>169.3772771946824</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H18" t="n">
-        <v>147.1527039470577</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I18" t="n">
-        <v>128.1921820022869</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J18" t="n">
-        <v>114.0976353962329</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K18" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L18" t="n">
-        <v>13.68767089206767</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -28682,34 +28684,34 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>31.73356832861344</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.1511249629769</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R18" t="n">
-        <v>176.2610996859475</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y18" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="19">
@@ -28719,7 +28721,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.5391974632748</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C19" t="n">
         <v>165.0035252842657</v>
@@ -28734,61 +28736,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.7092433502934</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H19" t="n">
-        <v>169.7952868872321</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I19" t="n">
-        <v>173.1943950862238</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J19" t="n">
-        <v>148.6412419518603</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K19" t="n">
-        <v>114.7844714143665</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L19" t="n">
-        <v>97.79680524136498</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M19" t="n">
-        <v>97.76482718690758</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N19" t="n">
-        <v>82.54274397298505</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O19" t="n">
-        <v>109.5837753944877</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P19" t="n">
-        <v>125.0564400155399</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q19" t="n">
-        <v>177.8251616508563</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="R19" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S19" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T19" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U19" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V19" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W19" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X19" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="H20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="I20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="J20" t="n">
-        <v>139.7090537154</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K20" t="n">
-        <v>126.1047343199522</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L20" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M20" t="n">
-        <v>54.69452290108308</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N20" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O20" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P20" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q20" t="n">
-        <v>164.6813718922238</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y20" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="21">
@@ -28877,37 +28879,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D21" t="n">
-        <v>180.7611153144678</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F21" t="n">
-        <v>184.1437201392488</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G21" t="n">
-        <v>169.3772771946824</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H21" t="n">
-        <v>147.1527039470577</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I21" t="n">
-        <v>128.1921820022869</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J21" t="n">
-        <v>114.0976353962329</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K21" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L21" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -28919,34 +28921,34 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>31.73356832861344</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.1511249629769</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R21" t="n">
-        <v>176.2610996859475</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28958,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.5391974632748</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C22" t="n">
         <v>165.0035252842657</v>
@@ -28971,61 +28973,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.7092433502934</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H22" t="n">
-        <v>169.7952868872321</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I22" t="n">
-        <v>173.1943950862238</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J22" t="n">
-        <v>148.6412419518603</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K22" t="n">
-        <v>114.7844714143665</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L22" t="n">
-        <v>97.79680524136499</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M22" t="n">
-        <v>97.7648271869076</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N22" t="n">
-        <v>82.54274397298506</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O22" t="n">
-        <v>109.5837753944877</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P22" t="n">
-        <v>125.0564400155399</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q22" t="n">
-        <v>177.8251616508563</v>
+        <v>172.8007569115686</v>
       </c>
       <c r="R22" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S22" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T22" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U22" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V22" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W22" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X22" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="H23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="I23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="J23" t="n">
-        <v>139.7090537154</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K23" t="n">
-        <v>126.1047343199522</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L23" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M23" t="n">
-        <v>54.69452290108308</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N23" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O23" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P23" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q23" t="n">
-        <v>164.6813718922237</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y23" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="24">
@@ -29114,37 +29116,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="D24" t="n">
-        <v>180.7611153144678</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="E24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="F24" t="n">
-        <v>184.1437201392488</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="G24" t="n">
-        <v>169.3772771946824</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H24" t="n">
-        <v>147.1527039470577</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I24" t="n">
-        <v>128.1921820022869</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J24" t="n">
-        <v>114.0976353962329</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K24" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L24" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -29156,34 +29158,34 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>31.73356832861344</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.1511249629769</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R24" t="n">
-        <v>176.2610996859475</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="25">
@@ -29193,7 +29195,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.5391974632748</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="C25" t="n">
         <v>165.0035252842657</v>
@@ -29208,61 +29210,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.7092433502934</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H25" t="n">
-        <v>169.7952868872321</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I25" t="n">
-        <v>173.1943950862238</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J25" t="n">
-        <v>148.6412419518603</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K25" t="n">
-        <v>114.7844714143665</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L25" t="n">
-        <v>97.79680524136499</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M25" t="n">
-        <v>97.7648271869076</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N25" t="n">
-        <v>82.54274397298506</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O25" t="n">
-        <v>109.5837753944877</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P25" t="n">
-        <v>125.0564400155399</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q25" t="n">
-        <v>177.8251616508563</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="R25" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="S25" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="T25" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="U25" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="V25" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="W25" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="X25" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.539051291971</v>
+        <v>172.8007569115648</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="C26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="D26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="E26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="F26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="G26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="H26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="I26" t="n">
-        <v>172.3588470003764</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>102.113595649383</v>
       </c>
       <c r="K26" t="n">
-        <v>126.1047343199522</v>
+        <v>102.113595649383</v>
       </c>
       <c r="L26" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M26" t="n">
-        <v>12.30720459957837</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N26" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O26" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P26" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q26" t="n">
-        <v>164.6813718922237</v>
+        <v>102.113595649383</v>
       </c>
       <c r="R26" t="n">
-        <v>172.3588470003764</v>
+        <v>72.53911503502275</v>
       </c>
       <c r="S26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="T26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="U26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="V26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="W26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="X26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="Y26" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
     </row>
     <row r="27">
@@ -29351,37 +29353,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="C27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="D27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="E27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="F27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="G27" t="n">
-        <v>169.3772771946824</v>
+        <v>102.113595649383</v>
       </c>
       <c r="H27" t="n">
-        <v>147.1527039470577</v>
+        <v>102.113595649383</v>
       </c>
       <c r="I27" t="n">
-        <v>128.1921820022869</v>
+        <v>102.113595649383</v>
       </c>
       <c r="J27" t="n">
-        <v>114.0976353962329</v>
+        <v>102.113595649383</v>
       </c>
       <c r="K27" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L27" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29393,34 +29395,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>31.73356832861344</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.1511249629769</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="S27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="T27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="U27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="V27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="W27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="X27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="Y27" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="C28" t="n">
-        <v>165.0035252842657</v>
+        <v>102.113595649383</v>
       </c>
       <c r="D28" t="n">
-        <v>138.8631356105373</v>
+        <v>102.113595649383</v>
       </c>
       <c r="E28" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9717133511</v>
+        <v>102.113595649383</v>
       </c>
       <c r="G28" t="n">
-        <v>169.7092433502934</v>
+        <v>102.113595649383</v>
       </c>
       <c r="H28" t="n">
-        <v>169.7952868872321</v>
+        <v>102.113595649383</v>
       </c>
       <c r="I28" t="n">
-        <v>172.3588470003764</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>148.6412419518603</v>
+        <v>102.113595649383</v>
       </c>
       <c r="K28" t="n">
-        <v>114.7844714143665</v>
+        <v>102.113595649383</v>
       </c>
       <c r="L28" t="n">
-        <v>97.79680524136499</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M28" t="n">
-        <v>97.7648271869076</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.54274397298506</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>109.5837753944877</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>125.0564400155399</v>
+        <v>102.113595649383</v>
       </c>
       <c r="Q28" t="n">
-        <v>172.3588470003764</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="S28" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="T28" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="U28" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="V28" t="n">
-        <v>172.3588470003764</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="X28" t="n">
-        <v>172.3588470003764</v>
+        <v>102.113595649383</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.3588470003764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="C29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="D29" t="n">
-        <v>189.5390512919709</v>
+        <v>44.14982271137396</v>
       </c>
       <c r="E29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="F29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="G29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="H29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="I29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="J29" t="n">
-        <v>139.7090537154</v>
+        <v>102.113595649383</v>
       </c>
       <c r="K29" t="n">
-        <v>126.1047343199522</v>
+        <v>102.113595649383</v>
       </c>
       <c r="L29" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M29" t="n">
-        <v>54.69452290108114</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N29" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O29" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P29" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q29" t="n">
-        <v>164.6813718922237</v>
+        <v>102.113595649383</v>
       </c>
       <c r="R29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="S29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="T29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="U29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="V29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="W29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="X29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="Y29" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
     </row>
     <row r="30">
@@ -29588,37 +29590,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="C30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="D30" t="n">
-        <v>180.7611153144678</v>
+        <v>102.113595649383</v>
       </c>
       <c r="E30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="F30" t="n">
-        <v>184.1437201392488</v>
+        <v>102.113595649383</v>
       </c>
       <c r="G30" t="n">
-        <v>169.3772771946824</v>
+        <v>102.113595649383</v>
       </c>
       <c r="H30" t="n">
-        <v>147.1527039470577</v>
+        <v>102.113595649383</v>
       </c>
       <c r="I30" t="n">
-        <v>128.1921820022869</v>
+        <v>102.113595649383</v>
       </c>
       <c r="J30" t="n">
-        <v>114.0976353962329</v>
+        <v>102.113595649383</v>
       </c>
       <c r="K30" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L30" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29630,34 +29632,34 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>31.73356832861344</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.1511249629769</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R30" t="n">
-        <v>176.2610996859475</v>
+        <v>102.113595649383</v>
       </c>
       <c r="S30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="T30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="U30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="V30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="W30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="X30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="Y30" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.5391974632748</v>
+        <v>102.113595649383</v>
       </c>
       <c r="C31" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>138.8631356105373</v>
+        <v>102.113595649383</v>
       </c>
       <c r="E31" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>169.7092433502934</v>
+        <v>102.113595649383</v>
       </c>
       <c r="H31" t="n">
-        <v>169.7952868872321</v>
+        <v>102.113595649383</v>
       </c>
       <c r="I31" t="n">
-        <v>173.1943950862238</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>148.6412419518603</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>114.7844714143665</v>
+        <v>102.113595649383</v>
       </c>
       <c r="L31" t="n">
-        <v>97.79680524136499</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M31" t="n">
-        <v>97.7648271869076</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N31" t="n">
-        <v>82.54274397298506</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O31" t="n">
-        <v>109.5837753944877</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P31" t="n">
-        <v>125.0564400155399</v>
+        <v>102.113595649383</v>
       </c>
       <c r="Q31" t="n">
-        <v>177.8251616508563</v>
+        <v>102.113595649383</v>
       </c>
       <c r="R31" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="T31" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="W31" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>189.5390512919709</v>
+        <v>102.113595649383</v>
       </c>
       <c r="Y31" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="C32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="D32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="E32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="F32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="G32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="H32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="I32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="J32" t="n">
-        <v>139.7090537154</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K32" t="n">
-        <v>126.1047343199522</v>
+        <v>111.1174419326662</v>
       </c>
       <c r="L32" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709247</v>
       </c>
       <c r="M32" t="n">
-        <v>54.69452290108308</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N32" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689777</v>
       </c>
       <c r="O32" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P32" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q32" t="n">
-        <v>164.6813718922237</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="S32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="T32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="U32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="V32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="W32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="X32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="Y32" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
     </row>
     <row r="33">
@@ -29825,37 +29827,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="C33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="D33" t="n">
-        <v>180.7611153144678</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="E33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="F33" t="n">
-        <v>184.1437201392488</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="G33" t="n">
-        <v>169.3772771946824</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="H33" t="n">
-        <v>147.1527039470577</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I33" t="n">
-        <v>128.1921820022869</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J33" t="n">
-        <v>114.0976353962329</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K33" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L33" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -29867,34 +29869,34 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>31.73356832861344</v>
+        <v>19.69571729742785</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.1511249629769</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R33" t="n">
-        <v>176.2610996859475</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="S33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="T33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="U33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="V33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="W33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="X33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="Y33" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.5391974632748</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="C34" t="n">
-        <v>165.0035252842657</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="D34" t="n">
         <v>138.8631356105373</v>
       </c>
       <c r="E34" t="n">
-        <v>132.9174244808186</v>
+        <v>87.91143876414468</v>
       </c>
       <c r="F34" t="n">
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.7092433502934</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="H34" t="n">
-        <v>169.7952868872321</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="I34" t="n">
-        <v>173.1943950862238</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>148.6412419518603</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K34" t="n">
-        <v>114.7844714143665</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L34" t="n">
-        <v>97.79680524136499</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M34" t="n">
-        <v>97.7648271869076</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.54274397298506</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5837753944877</v>
+        <v>102.1135956493829</v>
       </c>
       <c r="P34" t="n">
-        <v>125.0564400155399</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q34" t="n">
-        <v>177.8251616508563</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="R34" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="S34" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="T34" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="U34" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="X34" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="Y34" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="C35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="D35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="E35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="F35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="G35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="H35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="I35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="J35" t="n">
-        <v>139.7090537154</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K35" t="n">
-        <v>126.1047343199522</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L35" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M35" t="n">
-        <v>54.69452290108308</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N35" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O35" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P35" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q35" t="n">
-        <v>164.6813718922237</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="S35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="T35" t="n">
-        <v>189.5390512919709</v>
+        <v>21.32377945184077</v>
       </c>
       <c r="U35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="V35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="W35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="X35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="Y35" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
     </row>
     <row r="36">
@@ -30062,37 +30064,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="C36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="D36" t="n">
-        <v>180.7611153144678</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="E36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="F36" t="n">
-        <v>184.1437201392488</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="G36" t="n">
-        <v>169.3772771946824</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="H36" t="n">
-        <v>147.1527039470577</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1921820022869</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J36" t="n">
-        <v>114.0976353962329</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K36" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L36" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -30104,34 +30106,34 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>31.73356832861344</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.1511249629769</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R36" t="n">
-        <v>176.2610996859475</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="S36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="T36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="U36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="V36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="W36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="X36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="Y36" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
     </row>
     <row r="37">
@@ -30141,10 +30143,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.5391974632748</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="C37" t="n">
-        <v>165.0035252842657</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="D37" t="n">
         <v>138.8631356105373</v>
@@ -30156,61 +30158,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.7092433502934</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="H37" t="n">
-        <v>169.7952868872321</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="I37" t="n">
-        <v>173.1943950862238</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="J37" t="n">
-        <v>148.6412419518603</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K37" t="n">
-        <v>114.7844714143665</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L37" t="n">
-        <v>97.79680524136499</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M37" t="n">
-        <v>97.7648271869076</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N37" t="n">
-        <v>82.54274397298506</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O37" t="n">
-        <v>109.5837753944877</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P37" t="n">
-        <v>125.0564400155399</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q37" t="n">
-        <v>177.8251616508563</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="R37" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="S37" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="T37" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="U37" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="V37" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="W37" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="X37" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="C38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="D38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="E38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="F38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="G38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="H38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="I38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="J38" t="n">
-        <v>139.7090537154</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K38" t="n">
-        <v>126.1047343199522</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L38" t="n">
-        <v>95.87300011056811</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M38" t="n">
-        <v>54.69452290108308</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N38" t="n">
-        <v>48.00636714419341</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O38" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P38" t="n">
-        <v>114.0009215480153</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q38" t="n">
-        <v>164.6813718922237</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="S38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="T38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="U38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="V38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="W38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="X38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="Y38" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
     </row>
     <row r="39">
@@ -30299,37 +30301,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="C39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="D39" t="n">
-        <v>180.7611153144678</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="E39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="F39" t="n">
-        <v>184.1437201392488</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="G39" t="n">
-        <v>169.3772771946824</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="H39" t="n">
-        <v>147.1527039470577</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1921820022869</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J39" t="n">
-        <v>114.0976353962329</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K39" t="n">
-        <v>66.7265975729124</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L39" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -30341,34 +30343,34 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>31.73356832861344</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.1511249629769</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R39" t="n">
-        <v>176.2610996859475</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="S39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="T39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="U39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="V39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="W39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="X39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="Y39" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
     </row>
     <row r="40">
@@ -30378,10 +30380,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.5391974632748</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="C40" t="n">
-        <v>165.0035252842657</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="D40" t="n">
         <v>138.8631356105373</v>
@@ -30393,61 +30395,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.7092433502934</v>
+        <v>21.36953505893398</v>
       </c>
       <c r="H40" t="n">
-        <v>169.7952868872321</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="I40" t="n">
-        <v>173.1943950862238</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="J40" t="n">
-        <v>148.6412419518603</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K40" t="n">
-        <v>114.7844714143665</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L40" t="n">
-        <v>97.79680524136499</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M40" t="n">
-        <v>97.7648271869076</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N40" t="n">
-        <v>82.54274397298506</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O40" t="n">
-        <v>109.5837753944877</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P40" t="n">
-        <v>125.0564400155399</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q40" t="n">
-        <v>177.8251616508563</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="S40" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="U40" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="V40" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="W40" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="X40" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
       <c r="Y40" t="n">
-        <v>189.5390512919709</v>
+        <v>155.8557898621263</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="C41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="D41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="E41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="F41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="G41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="H41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="I41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="J41" t="n">
-        <v>139.7090537154</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="K41" t="n">
-        <v>126.1047343199522</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="L41" t="n">
-        <v>95.87300011056811</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="M41" t="n">
-        <v>54.69452290108308</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N41" t="n">
-        <v>48.00636714419443</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O41" t="n">
-        <v>67.21973758497694</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P41" t="n">
-        <v>114.0009215480153</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="Q41" t="n">
-        <v>164.6813718922237</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="R41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="S41" t="n">
-        <v>189.5390512919709</v>
+        <v>30.49509748320626</v>
       </c>
       <c r="T41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="U41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="V41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="W41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="X41" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="Y41" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30536,37 +30538,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="C42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="D42" t="n">
-        <v>180.7611153144678</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="E42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="F42" t="n">
-        <v>184.1437201392488</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="G42" t="n">
-        <v>169.3772771946824</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="H42" t="n">
-        <v>147.1527039470577</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1921820022869</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="J42" t="n">
-        <v>114.0976353962329</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="K42" t="n">
-        <v>66.7265975729124</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="L42" t="n">
-        <v>13.6876708920677</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -30578,34 +30580,34 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>31.73356832861024</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.1511249629769</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="R42" t="n">
-        <v>176.2610996859475</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="S42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="T42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="U42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="V42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="W42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="X42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="Y42" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.5391974632748</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="C43" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>138.8631356105373</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="E43" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>169.7092433502934</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="H43" t="n">
-        <v>169.7952868872321</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="I43" t="n">
-        <v>173.1943950862238</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="J43" t="n">
-        <v>148.6412419518603</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>114.7844714143665</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="L43" t="n">
-        <v>97.79680524136499</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.7648271869076</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="N43" t="n">
-        <v>82.54274397298506</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>109.5837753944877</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="P43" t="n">
-        <v>125.0564400155399</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="Q43" t="n">
-        <v>177.8251616508563</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="R43" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>189.5390512919709</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="V43" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.5390512919709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30696,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>5.193929440417942</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
     </row>
     <row r="45">
@@ -30773,31 +30775,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30815,34 +30817,34 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>53.74219421274337</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H11" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I11" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J11" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K11" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L11" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M11" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N11" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O11" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P11" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R11" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S11" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T11" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H12" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I12" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J12" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K12" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L12" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>230.9678051232798</v>
@@ -31856,22 +31858,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R12" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S12" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T12" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H13" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I13" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J13" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K13" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L13" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M13" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N13" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O13" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P13" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R13" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S13" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T13" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H14" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I14" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J14" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K14" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L14" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M14" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N14" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O14" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P14" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R14" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S14" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T14" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H15" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I15" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J15" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K15" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L15" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>230.9678051232798</v>
@@ -32093,22 +32095,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R15" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S15" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T15" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H16" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I16" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J16" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K16" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L16" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M16" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N16" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O16" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P16" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R16" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S16" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T16" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H17" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I17" t="n">
-        <v>70.17477827146541</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J17" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K17" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L17" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M17" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N17" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O17" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P17" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R17" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S17" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T17" t="n">
-        <v>7.968097837580951</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H18" t="n">
-        <v>9.405958148530489</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I18" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J18" t="n">
-        <v>92.01350793710048</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K18" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L18" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>230.9678051232798</v>
@@ -32330,22 +32332,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R18" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S18" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T18" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8164967169329334</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H19" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I19" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J19" t="n">
-        <v>57.72631788715837</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K19" t="n">
-        <v>94.86207311275351</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L19" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M19" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N19" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O19" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P19" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R19" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S19" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T19" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H20" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I20" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J20" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K20" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L20" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M20" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N20" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O20" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P20" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q20" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R20" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S20" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T20" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H21" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I21" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J21" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K21" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L21" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>230.9678051232798</v>
@@ -32567,22 +32569,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q21" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R21" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S21" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T21" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H22" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I22" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J22" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K22" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L22" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M22" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N22" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O22" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P22" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R22" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S22" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T22" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H23" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I23" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J23" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K23" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L23" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M23" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N23" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O23" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P23" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q23" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R23" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S23" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T23" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H24" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I24" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J24" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K24" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L24" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>230.9678051232798</v>
@@ -32804,22 +32806,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R24" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S24" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T24" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H25" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I25" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J25" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K25" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L25" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M25" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N25" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O25" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P25" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R25" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S25" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T25" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H26" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I26" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J26" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K26" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L26" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M26" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N26" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O26" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P26" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q26" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R26" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S26" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T26" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H27" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I27" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J27" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K27" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L27" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>230.9678051232798</v>
@@ -33041,22 +33043,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q27" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R27" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S27" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T27" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H28" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I28" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J28" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K28" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L28" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M28" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N28" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O28" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P28" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R28" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S28" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T28" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H29" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I29" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J29" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K29" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L29" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M29" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N29" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O29" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P29" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q29" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R29" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S29" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T29" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H30" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I30" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J30" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K30" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L30" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>230.9678051232798</v>
@@ -33278,22 +33280,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q30" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R30" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S30" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T30" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H31" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I31" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J31" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K31" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L31" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M31" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N31" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O31" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P31" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R31" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S31" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T31" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H32" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I32" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J32" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K32" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L32" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891368</v>
       </c>
       <c r="M32" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N32" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375625</v>
       </c>
       <c r="O32" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P32" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R32" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S32" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T32" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.036953796756759</v>
       </c>
       <c r="H33" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I33" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J33" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K33" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>230.9678051232798</v>
@@ -33515,22 +33517,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q33" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R33" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828374</v>
       </c>
       <c r="S33" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T33" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H34" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387103</v>
       </c>
       <c r="I34" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J34" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733073</v>
       </c>
       <c r="K34" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L34" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M34" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283392</v>
       </c>
       <c r="N34" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O34" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P34" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R34" t="n">
-        <v>36.71266147227534</v>
+        <v>39.08901270840141</v>
       </c>
       <c r="S34" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T34" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H35" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I35" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J35" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K35" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L35" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M35" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N35" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O35" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P35" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R35" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S35" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T35" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H36" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I36" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J36" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K36" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L36" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>230.9678051232798</v>
@@ -33752,22 +33754,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q36" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R36" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S36" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T36" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H37" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I37" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J37" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K37" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L37" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M37" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N37" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O37" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P37" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R37" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S37" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T37" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H38" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I38" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J38" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K38" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L38" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M38" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N38" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O38" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P38" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q38" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R38" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S38" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T38" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H39" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I39" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J39" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K39" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L39" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>230.9678051232798</v>
@@ -33989,22 +33991,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q39" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R39" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S39" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T39" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H40" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I40" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J40" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K40" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L40" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M40" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N40" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O40" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P40" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R40" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S40" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T40" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H41" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I41" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J41" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K41" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L41" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M41" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N41" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O41" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P41" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R41" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S41" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T41" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H42" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I42" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J42" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K42" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L42" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>230.9678051232798</v>
@@ -34226,22 +34228,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R42" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S42" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T42" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H43" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I43" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J43" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K43" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L43" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M43" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N43" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O43" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P43" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R43" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S43" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T43" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.820239368950531</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H44" t="n">
-        <v>18.64152643726463</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I44" t="n">
-        <v>70.1747782714654</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J44" t="n">
-        <v>154.4905411404652</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K44" t="n">
-        <v>231.5412736281413</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L44" t="n">
-        <v>287.2474242156611</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M44" t="n">
-        <v>319.6181060932351</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N44" t="n">
-        <v>324.7898612002658</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O44" t="n">
-        <v>306.689855975264</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P44" t="n">
-        <v>261.7526965542977</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.5653741537567</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R44" t="n">
-        <v>114.3406112598389</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S44" t="n">
-        <v>41.47870461996026</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T44" t="n">
-        <v>7.968097837580952</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1456191495160424</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9739139227361266</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H45" t="n">
-        <v>9.405958148530488</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I45" t="n">
-        <v>33.53168549771314</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J45" t="n">
-        <v>92.01350793710047</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K45" t="n">
-        <v>157.265740760421</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L45" t="n">
-        <v>211.4631962502279</v>
+        <v>225.1508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>230.9678051232798</v>
@@ -34463,22 +34465,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>185.9748437196732</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q45" t="n">
-        <v>124.319257926808</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R45" t="n">
-        <v>60.46809425549392</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S45" t="n">
-        <v>18.09002395959427</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T45" t="n">
-        <v>3.925556556993421</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06407328439053468</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8164967169329332</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H46" t="n">
-        <v>7.259398083276448</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I46" t="n">
-        <v>24.55428308740131</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J46" t="n">
-        <v>57.72631788715838</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K46" t="n">
-        <v>94.86207311275349</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L46" t="n">
-        <v>121.3907937156472</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M46" t="n">
-        <v>127.9895717279506</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N46" t="n">
-        <v>124.9462657830189</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O46" t="n">
-        <v>115.4080995897568</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P46" t="n">
-        <v>98.7515665643249</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.37046599699318</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R46" t="n">
-        <v>36.71266147227534</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S46" t="n">
-        <v>14.22931096691302</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T46" t="n">
-        <v>3.488667790531623</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04453618455997823</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_6_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2501023.479066941</v>
+        <v>2460430.65659136</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9767227.991507743</v>
+        <v>9060165.097540991</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7504363.140915887</v>
+        <v>7704419.352743717</v>
       </c>
     </row>
     <row r="11">
@@ -23257,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185.3688765540544</v>
+        <v>178.3516620374403</v>
       </c>
       <c r="C11" t="n">
-        <v>149.6670371610657</v>
+        <v>142.6498226444515</v>
       </c>
       <c r="D11" t="n">
-        <v>133.8400063612326</v>
+        <v>126.8227918446185</v>
       </c>
       <c r="E11" t="n">
-        <v>179.4379710850559</v>
+        <v>172.4207565684417</v>
       </c>
       <c r="F11" t="n">
-        <v>223.6298453594137</v>
+        <v>216.6126308427995</v>
       </c>
       <c r="G11" t="n">
-        <v>251.7632228650384</v>
+        <v>244.8638295006096</v>
       </c>
       <c r="H11" t="n">
-        <v>180.098351082465</v>
+        <v>174.2877724406682</v>
       </c>
       <c r="I11" t="n">
-        <v>94.24759697480002</v>
+        <v>91.77268242780814</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>20.79409623771741</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.78404782560364</v>
+        <v>56.16791625994688</v>
       </c>
       <c r="S11" t="n">
-        <v>70.93370511695113</v>
+        <v>66.6013401057586</v>
       </c>
       <c r="T11" t="n">
-        <v>45.07954191406941</v>
+        <v>38.57808949114622</v>
       </c>
       <c r="U11" t="n">
-        <v>75.08708443688289</v>
+        <v>68.07929561244354</v>
       </c>
       <c r="V11" t="n">
-        <v>135.4274252489596</v>
+        <v>128.4102107323455</v>
       </c>
       <c r="W11" t="n">
-        <v>144.2115047273082</v>
+        <v>137.194290210694</v>
       </c>
       <c r="X11" t="n">
-        <v>168.6678824493959</v>
+        <v>161.6506679327818</v>
       </c>
       <c r="Y11" t="n">
-        <v>202.2088543649328</v>
+        <v>195.1916398483187</v>
       </c>
     </row>
     <row r="12">
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.75887772636622</v>
+        <v>15.74166320975206</v>
       </c>
       <c r="C12" t="n">
-        <v>41.98061859962078</v>
+        <v>34.96340408300662</v>
       </c>
       <c r="D12" t="n">
-        <v>7.960358402903012</v>
+        <v>0.9431438862888513</v>
       </c>
       <c r="E12" t="n">
-        <v>25.13549224951439</v>
+        <v>18.11827773290022</v>
       </c>
       <c r="F12" t="n">
-        <v>11.34296322768401</v>
+        <v>4.325748711069849</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23366,7 +23366,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>47.66038217664871</v>
+        <v>41.81410567090027</v>
       </c>
       <c r="T12" t="n">
-        <v>67.73923995927547</v>
+        <v>60.97612037347253</v>
       </c>
       <c r="U12" t="n">
-        <v>85.17752986922622</v>
+        <v>78.16446271274501</v>
       </c>
       <c r="V12" t="n">
-        <v>82.29623298211334</v>
+        <v>75.27901846549918</v>
       </c>
       <c r="W12" t="n">
-        <v>121.5351365223434</v>
+        <v>114.5179220057292</v>
       </c>
       <c r="X12" t="n">
-        <v>65.75611816689312</v>
+        <v>58.73890365027896</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.17054783369767</v>
+        <v>76.15333331708351</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7384405517100276</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23445,7 +23445,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5988949867729332</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.95971444188311</v>
+        <v>58.31885116139502</v>
       </c>
       <c r="S13" t="n">
-        <v>77.54526674807585</v>
+        <v>71.44909253062336</v>
       </c>
       <c r="T13" t="n">
-        <v>41.75843481840135</v>
+        <v>34.96703612891605</v>
       </c>
       <c r="U13" t="n">
-        <v>120.1398276407919</v>
+        <v>113.1254958794177</v>
       </c>
       <c r="V13" t="n">
-        <v>59.36919283448458</v>
+        <v>52.35197831787042</v>
       </c>
       <c r="W13" t="n">
-        <v>124.4827776544135</v>
+        <v>117.4655631377994</v>
       </c>
       <c r="X13" t="n">
-        <v>42.14128489566954</v>
+        <v>35.12407037905538</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.68338354869374</v>
+        <v>34.66616903207958</v>
       </c>
     </row>
     <row r="14">
@@ -23494,37 +23494,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>185.3688765540544</v>
+        <v>178.3516620374403</v>
       </c>
       <c r="C14" t="n">
-        <v>149.6670371610657</v>
+        <v>142.6498226444515</v>
       </c>
       <c r="D14" t="n">
-        <v>133.8400063612326</v>
+        <v>126.8227918446185</v>
       </c>
       <c r="E14" t="n">
-        <v>179.4379710850559</v>
+        <v>172.4207565684417</v>
       </c>
       <c r="F14" t="n">
-        <v>223.6298453594127</v>
+        <v>216.6126308427995</v>
       </c>
       <c r="G14" t="n">
-        <v>251.7632228650384</v>
+        <v>244.8638295006096</v>
       </c>
       <c r="H14" t="n">
-        <v>180.098351082465</v>
+        <v>174.2877724406682</v>
       </c>
       <c r="I14" t="n">
-        <v>94.24759697480002</v>
+        <v>91.77268242780814</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.602128929742264</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.78404782560364</v>
+        <v>56.16791625994688</v>
       </c>
       <c r="S14" t="n">
-        <v>70.93370511695113</v>
+        <v>66.6013401057586</v>
       </c>
       <c r="T14" t="n">
-        <v>45.07954191406941</v>
+        <v>38.57808949114622</v>
       </c>
       <c r="U14" t="n">
-        <v>75.08708443688289</v>
+        <v>68.07929561244354</v>
       </c>
       <c r="V14" t="n">
-        <v>135.4274252489596</v>
+        <v>128.4102107323455</v>
       </c>
       <c r="W14" t="n">
-        <v>144.2115047273082</v>
+        <v>137.194290210694</v>
       </c>
       <c r="X14" t="n">
-        <v>168.6678824493959</v>
+        <v>161.6506679327818</v>
       </c>
       <c r="Y14" t="n">
-        <v>202.2088543649328</v>
+        <v>195.1916398483187</v>
       </c>
     </row>
     <row r="15">
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.75887772636622</v>
+        <v>15.74166320975206</v>
       </c>
       <c r="C15" t="n">
-        <v>41.98061859962078</v>
+        <v>34.96340408300662</v>
       </c>
       <c r="D15" t="n">
-        <v>7.960358402903012</v>
+        <v>0.9431438862888513</v>
       </c>
       <c r="E15" t="n">
-        <v>25.13549224951439</v>
+        <v>18.11827773290022</v>
       </c>
       <c r="F15" t="n">
-        <v>11.34296322768401</v>
+        <v>4.325748711069849</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23603,7 +23603,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>47.66038217664871</v>
+        <v>41.81410567090027</v>
       </c>
       <c r="T15" t="n">
-        <v>67.73923995927547</v>
+        <v>60.97612037347253</v>
       </c>
       <c r="U15" t="n">
-        <v>85.17752986922622</v>
+        <v>78.16446271274501</v>
       </c>
       <c r="V15" t="n">
-        <v>82.29623298211334</v>
+        <v>75.27901846549918</v>
       </c>
       <c r="W15" t="n">
-        <v>121.5351365223434</v>
+        <v>114.5179220057292</v>
       </c>
       <c r="X15" t="n">
-        <v>65.75611816689312</v>
+        <v>58.73890365027896</v>
       </c>
       <c r="Y15" t="n">
-        <v>83.17054783369767</v>
+        <v>76.15333331708351</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7384405517100276</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5988949867729332</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.95971444188311</v>
+        <v>58.31885116139502</v>
       </c>
       <c r="S16" t="n">
-        <v>77.54526674807585</v>
+        <v>71.44909253062336</v>
       </c>
       <c r="T16" t="n">
-        <v>41.75843481840135</v>
+        <v>34.96703612891605</v>
       </c>
       <c r="U16" t="n">
-        <v>120.1398276407919</v>
+        <v>113.1254958794177</v>
       </c>
       <c r="V16" t="n">
-        <v>59.36919283448458</v>
+        <v>52.35197831787042</v>
       </c>
       <c r="W16" t="n">
-        <v>124.4827776544135</v>
+        <v>117.4655631377994</v>
       </c>
       <c r="X16" t="n">
-        <v>42.14128489566954</v>
+        <v>35.12407037905538</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.68338354869374</v>
+        <v>34.66616903207958</v>
       </c>
     </row>
     <row r="17">
@@ -23731,31 +23731,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>185.3688765540544</v>
+        <v>178.3516620374403</v>
       </c>
       <c r="C17" t="n">
-        <v>149.6670371610657</v>
+        <v>142.6498226444515</v>
       </c>
       <c r="D17" t="n">
-        <v>133.8400063612326</v>
+        <v>126.8227918446185</v>
       </c>
       <c r="E17" t="n">
-        <v>179.4379710850559</v>
+        <v>172.4207565684417</v>
       </c>
       <c r="F17" t="n">
-        <v>223.6298453594137</v>
+        <v>216.6126308427995</v>
       </c>
       <c r="G17" t="n">
-        <v>251.7632228650384</v>
+        <v>244.8638295006096</v>
       </c>
       <c r="H17" t="n">
-        <v>180.098351082465</v>
+        <v>174.2877724406682</v>
       </c>
       <c r="I17" t="n">
-        <v>94.24759697480002</v>
+        <v>91.77268242780814</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>71.98865509818958</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.78404782560364</v>
+        <v>56.16791625994688</v>
       </c>
       <c r="S17" t="n">
-        <v>70.93370511695113</v>
+        <v>66.6013401057586</v>
       </c>
       <c r="T17" t="n">
-        <v>45.07954191406941</v>
+        <v>38.57808949114622</v>
       </c>
       <c r="U17" t="n">
-        <v>75.08708443688289</v>
+        <v>68.07929561244354</v>
       </c>
       <c r="V17" t="n">
-        <v>135.4274252489596</v>
+        <v>128.4102107323455</v>
       </c>
       <c r="W17" t="n">
-        <v>144.2115047273082</v>
+        <v>137.194290210694</v>
       </c>
       <c r="X17" t="n">
-        <v>168.6678824493949</v>
+        <v>161.6506679327818</v>
       </c>
       <c r="Y17" t="n">
-        <v>202.2088543649328</v>
+        <v>195.1916398483187</v>
       </c>
     </row>
     <row r="18">
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.75887772636622</v>
+        <v>15.74166320975206</v>
       </c>
       <c r="C18" t="n">
-        <v>41.98061859962078</v>
+        <v>34.96340408300662</v>
       </c>
       <c r="D18" t="n">
-        <v>7.960358402903012</v>
+        <v>0.9431438862888513</v>
       </c>
       <c r="E18" t="n">
-        <v>25.13549224951439</v>
+        <v>18.11827773290022</v>
       </c>
       <c r="F18" t="n">
-        <v>11.34296322768401</v>
+        <v>4.325748711069849</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23840,7 +23840,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>47.66038217664871</v>
+        <v>41.81410567090027</v>
       </c>
       <c r="T18" t="n">
-        <v>67.73923995927547</v>
+        <v>60.97612037347253</v>
       </c>
       <c r="U18" t="n">
-        <v>85.17752986922622</v>
+        <v>78.16446271274501</v>
       </c>
       <c r="V18" t="n">
-        <v>82.29623298211334</v>
+        <v>75.27901846549918</v>
       </c>
       <c r="W18" t="n">
-        <v>121.5351365223434</v>
+        <v>114.5179220057292</v>
       </c>
       <c r="X18" t="n">
-        <v>65.75611816689312</v>
+        <v>58.73890365027896</v>
       </c>
       <c r="Y18" t="n">
-        <v>83.17054783369767</v>
+        <v>76.15333331708351</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7384405517100276</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23919,7 +23919,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5988949867729332</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>62.95971444188311</v>
+        <v>58.31885116139502</v>
       </c>
       <c r="S19" t="n">
-        <v>77.54526674807585</v>
+        <v>71.44909253062336</v>
       </c>
       <c r="T19" t="n">
-        <v>41.75843481840135</v>
+        <v>34.96703612891605</v>
       </c>
       <c r="U19" t="n">
-        <v>120.1398276407919</v>
+        <v>113.1254958794177</v>
       </c>
       <c r="V19" t="n">
-        <v>59.36919283448458</v>
+        <v>52.35197831787042</v>
       </c>
       <c r="W19" t="n">
-        <v>124.4827776544135</v>
+        <v>117.4655631377994</v>
       </c>
       <c r="X19" t="n">
-        <v>42.14128489566954</v>
+        <v>35.12407037905538</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.68338354869374</v>
+        <v>34.66616903207958</v>
       </c>
     </row>
     <row r="20">
@@ -23968,34 +23968,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>185.3688765540544</v>
+        <v>178.3516620374403</v>
       </c>
       <c r="C20" t="n">
-        <v>149.6670371610657</v>
+        <v>142.6498226444515</v>
       </c>
       <c r="D20" t="n">
-        <v>133.8400063612326</v>
+        <v>126.8227918446185</v>
       </c>
       <c r="E20" t="n">
-        <v>179.4379710850559</v>
+        <v>172.4207565684417</v>
       </c>
       <c r="F20" t="n">
-        <v>223.6298453594137</v>
+        <v>216.6126308427995</v>
       </c>
       <c r="G20" t="n">
-        <v>251.7632228650384</v>
+        <v>244.8638295006096</v>
       </c>
       <c r="H20" t="n">
-        <v>180.098351082465</v>
+        <v>174.2877724406682</v>
       </c>
       <c r="I20" t="n">
-        <v>94.24759697480002</v>
+        <v>91.77268242780814</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>60.75968206978018</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24004,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.78404782560364</v>
+        <v>56.16791625994688</v>
       </c>
       <c r="S20" t="n">
-        <v>70.93370511695113</v>
+        <v>66.6013401057586</v>
       </c>
       <c r="T20" t="n">
-        <v>45.07954191406941</v>
+        <v>38.57808949114622</v>
       </c>
       <c r="U20" t="n">
-        <v>75.08708443688289</v>
+        <v>68.07929561244354</v>
       </c>
       <c r="V20" t="n">
-        <v>135.4274252489596</v>
+        <v>128.4102107323455</v>
       </c>
       <c r="W20" t="n">
-        <v>144.2115047273082</v>
+        <v>137.194290210694</v>
       </c>
       <c r="X20" t="n">
-        <v>168.6678824493959</v>
+        <v>161.6506679327818</v>
       </c>
       <c r="Y20" t="n">
-        <v>202.2088543649328</v>
+        <v>195.1916398483187</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.75887772636622</v>
+        <v>15.74166320975206</v>
       </c>
       <c r="C21" t="n">
-        <v>41.98061859962078</v>
+        <v>34.96340408300662</v>
       </c>
       <c r="D21" t="n">
-        <v>7.960358402903012</v>
+        <v>0.9431438862888513</v>
       </c>
       <c r="E21" t="n">
-        <v>25.13549224951439</v>
+        <v>18.11827773290022</v>
       </c>
       <c r="F21" t="n">
-        <v>11.34296322768401</v>
+        <v>4.325748711069849</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>47.66038217664871</v>
+        <v>41.81410567090027</v>
       </c>
       <c r="T21" t="n">
-        <v>67.73923995927547</v>
+        <v>60.97612037347253</v>
       </c>
       <c r="U21" t="n">
-        <v>85.17752986922622</v>
+        <v>78.16446271274501</v>
       </c>
       <c r="V21" t="n">
-        <v>82.29623298211334</v>
+        <v>75.27901846549918</v>
       </c>
       <c r="W21" t="n">
-        <v>121.5351365223434</v>
+        <v>114.5179220057292</v>
       </c>
       <c r="X21" t="n">
-        <v>65.75611816689312</v>
+        <v>58.73890365027896</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.17054783369767</v>
+        <v>76.15333331708351</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7384405517100276</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5988949867690678</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>62.95971444188311</v>
+        <v>58.31885116139502</v>
       </c>
       <c r="S22" t="n">
-        <v>77.54526674807585</v>
+        <v>71.44909253062336</v>
       </c>
       <c r="T22" t="n">
-        <v>41.75843481840135</v>
+        <v>34.96703612891605</v>
       </c>
       <c r="U22" t="n">
-        <v>120.1398276407919</v>
+        <v>113.1254958794177</v>
       </c>
       <c r="V22" t="n">
-        <v>59.36919283448458</v>
+        <v>52.35197831787042</v>
       </c>
       <c r="W22" t="n">
-        <v>124.4827776544135</v>
+        <v>117.4655631377994</v>
       </c>
       <c r="X22" t="n">
-        <v>42.14128489566954</v>
+        <v>35.12407037905538</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.68338354869374</v>
+        <v>34.66616903207958</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>185.3688765540544</v>
+        <v>178.3516620374403</v>
       </c>
       <c r="C23" t="n">
-        <v>149.6670371610657</v>
+        <v>142.6498226444515</v>
       </c>
       <c r="D23" t="n">
-        <v>133.8400063612326</v>
+        <v>126.8227918446185</v>
       </c>
       <c r="E23" t="n">
-        <v>179.4379710850559</v>
+        <v>172.4207565684417</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6298453594137</v>
+        <v>216.6126308427995</v>
       </c>
       <c r="G23" t="n">
-        <v>251.7632228650384</v>
+        <v>244.8638295006096</v>
       </c>
       <c r="H23" t="n">
-        <v>180.098351082465</v>
+        <v>174.2877724406682</v>
       </c>
       <c r="I23" t="n">
-        <v>94.24759697480002</v>
+        <v>91.77268242780814</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24247,34 +24247,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>108.7660492139738</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.78404782560364</v>
+        <v>56.16791625994688</v>
       </c>
       <c r="S23" t="n">
-        <v>70.93370511695113</v>
+        <v>66.6013401057586</v>
       </c>
       <c r="T23" t="n">
-        <v>45.07954191406941</v>
+        <v>38.57808949114622</v>
       </c>
       <c r="U23" t="n">
-        <v>75.08708443688289</v>
+        <v>68.07929561244354</v>
       </c>
       <c r="V23" t="n">
-        <v>135.4274252489596</v>
+        <v>128.4102107323455</v>
       </c>
       <c r="W23" t="n">
-        <v>144.2115047273082</v>
+        <v>137.194290210694</v>
       </c>
       <c r="X23" t="n">
-        <v>168.6678824493959</v>
+        <v>161.6506679327818</v>
       </c>
       <c r="Y23" t="n">
-        <v>202.2088543649328</v>
+        <v>195.1916398483187</v>
       </c>
     </row>
     <row r="24">
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22.75887772636622</v>
+        <v>15.74166320975206</v>
       </c>
       <c r="C24" t="n">
-        <v>41.98061859962078</v>
+        <v>34.96340408300662</v>
       </c>
       <c r="D24" t="n">
-        <v>7.960358402903012</v>
+        <v>0.9431438862888513</v>
       </c>
       <c r="E24" t="n">
-        <v>25.13549224951439</v>
+        <v>18.11827773290022</v>
       </c>
       <c r="F24" t="n">
-        <v>11.34296322768401</v>
+        <v>4.325748711069849</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>47.66038217664871</v>
+        <v>41.81410567090027</v>
       </c>
       <c r="T24" t="n">
-        <v>67.73923995927547</v>
+        <v>60.97612037347253</v>
       </c>
       <c r="U24" t="n">
-        <v>85.17752986922622</v>
+        <v>78.16446271274501</v>
       </c>
       <c r="V24" t="n">
-        <v>82.29623298211334</v>
+        <v>75.27901846549918</v>
       </c>
       <c r="W24" t="n">
-        <v>121.5351365223434</v>
+        <v>114.5179220057292</v>
       </c>
       <c r="X24" t="n">
-        <v>65.75611816689312</v>
+        <v>58.73890365027896</v>
       </c>
       <c r="Y24" t="n">
-        <v>83.17054783369767</v>
+        <v>76.15333331708351</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7384405517100276</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5988949867729332</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>62.95971444188311</v>
+        <v>58.31885116139502</v>
       </c>
       <c r="S25" t="n">
-        <v>77.54526674807585</v>
+        <v>71.44909253062336</v>
       </c>
       <c r="T25" t="n">
-        <v>41.75843481840135</v>
+        <v>34.96703612891605</v>
       </c>
       <c r="U25" t="n">
-        <v>120.1398276407919</v>
+        <v>113.1254958794177</v>
       </c>
       <c r="V25" t="n">
-        <v>59.36919283448458</v>
+        <v>52.35197831787042</v>
       </c>
       <c r="W25" t="n">
-        <v>124.4827776544135</v>
+        <v>117.4655631377994</v>
       </c>
       <c r="X25" t="n">
-        <v>42.14128489566954</v>
+        <v>35.12407037905538</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.68338354869374</v>
+        <v>34.66616903207958</v>
       </c>
     </row>
     <row r="26">
@@ -24442,34 +24442,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>256.0560378162363</v>
+        <v>175.540669058516</v>
       </c>
       <c r="C26" t="n">
-        <v>220.3541984232475</v>
+        <v>139.8388296655272</v>
       </c>
       <c r="D26" t="n">
-        <v>204.5271676234145</v>
+        <v>124.0117988656942</v>
       </c>
       <c r="E26" t="n">
-        <v>250.1251323472377</v>
+        <v>169.6097635895174</v>
       </c>
       <c r="F26" t="n">
-        <v>294.3170066215955</v>
+        <v>213.8016378638752</v>
       </c>
       <c r="G26" t="n">
-        <v>322.4503841272203</v>
+        <v>242.0528365216853</v>
       </c>
       <c r="H26" t="n">
-        <v>250.7855123446468</v>
+        <v>171.4767794617439</v>
       </c>
       <c r="I26" t="n">
-        <v>267.0483538863648</v>
+        <v>88.96168944888386</v>
       </c>
       <c r="J26" t="n">
-        <v>27.59553505073325</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>9.003846283283309</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.84441729479462</v>
+        <v>38.17163165427985</v>
       </c>
       <c r="R26" t="n">
-        <v>156.0456897021456</v>
+        <v>53.3569232810226</v>
       </c>
       <c r="S26" t="n">
-        <v>141.620866379133</v>
+        <v>63.79034712683433</v>
       </c>
       <c r="T26" t="n">
-        <v>115.7667031762512</v>
+        <v>35.76709651222194</v>
       </c>
       <c r="U26" t="n">
-        <v>145.7742456990647</v>
+        <v>65.26830263351927</v>
       </c>
       <c r="V26" t="n">
-        <v>206.1145865111415</v>
+        <v>125.5992177534212</v>
       </c>
       <c r="W26" t="n">
-        <v>214.89866598949</v>
+        <v>134.3832972317697</v>
       </c>
       <c r="X26" t="n">
-        <v>239.3550437115778</v>
+        <v>158.8396749538575</v>
       </c>
       <c r="Y26" t="n">
-        <v>272.8960156271147</v>
+        <v>192.3806468693944</v>
       </c>
     </row>
     <row r="27">
@@ -24521,37 +24521,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>93.44603898854804</v>
+        <v>12.93067023082779</v>
       </c>
       <c r="C27" t="n">
-        <v>112.6677798618026</v>
+        <v>32.15241110408235</v>
       </c>
       <c r="D27" t="n">
-        <v>78.64751966508483</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>95.8226535116962</v>
+        <v>15.30728475397595</v>
       </c>
       <c r="F27" t="n">
-        <v>82.03012448986583</v>
+        <v>1.514755732145574</v>
       </c>
       <c r="G27" t="n">
-        <v>67.20064167127886</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>44.4302758301597</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.90813455000055</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.028154105277792</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>70.23350203377476</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>118.3475434388305</v>
+        <v>39.00311269197599</v>
       </c>
       <c r="T27" t="n">
-        <v>138.4264012214573</v>
+        <v>58.16512739454826</v>
       </c>
       <c r="U27" t="n">
-        <v>155.8646911314081</v>
+        <v>75.35346973382073</v>
       </c>
       <c r="V27" t="n">
-        <v>152.9833942442951</v>
+        <v>72.4680254865749</v>
       </c>
       <c r="W27" t="n">
-        <v>192.2222977845252</v>
+        <v>111.7069290268049</v>
       </c>
       <c r="X27" t="n">
-        <v>136.4432794290749</v>
+        <v>55.92791067135468</v>
       </c>
       <c r="Y27" t="n">
-        <v>153.8577090958795</v>
+        <v>73.34234033815923</v>
       </c>
     </row>
     <row r="28">
@@ -24600,76 +24600,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.42560181389184</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.88992963488271</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>36.7495399611543</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>24.85811770171701</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>67.5427971881782</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>67.2118021337385</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>171.6050360306021</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.79111505230499</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>6.530607103905652</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>89.48026908651906</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>74.45517414732592</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>102.113595649383</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P28" t="n">
-        <v>16.55081508079078</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>173.3996518983377</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.6468757040649</v>
+        <v>55.50785818247075</v>
       </c>
       <c r="S28" t="n">
-        <v>148.2324280102577</v>
+        <v>68.63809955169909</v>
       </c>
       <c r="T28" t="n">
-        <v>112.4455960805832</v>
+        <v>32.15604314999177</v>
       </c>
       <c r="U28" t="n">
-        <v>190.8269889029737</v>
+        <v>110.3145029004934</v>
       </c>
       <c r="V28" t="n">
-        <v>232.1699497460494</v>
+        <v>49.54098533894614</v>
       </c>
       <c r="W28" t="n">
-        <v>195.1699389165954</v>
+        <v>114.6545701588751</v>
       </c>
       <c r="X28" t="n">
-        <v>112.8284461578514</v>
+        <v>32.31307740013111</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.4841404602585</v>
+        <v>31.8551760531553</v>
       </c>
     </row>
     <row r="29">
@@ -24679,34 +24679,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>256.0560378162363</v>
+        <v>175.540669058516</v>
       </c>
       <c r="C29" t="n">
-        <v>220.3541984232475</v>
+        <v>139.8388296655272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.4909405614234</v>
+        <v>124.0117988656942</v>
       </c>
       <c r="E29" t="n">
-        <v>250.1251323472377</v>
+        <v>169.6097635895174</v>
       </c>
       <c r="F29" t="n">
-        <v>294.3170066215955</v>
+        <v>213.8016378638752</v>
       </c>
       <c r="G29" t="n">
-        <v>322.4503841272203</v>
+        <v>242.0528365216853</v>
       </c>
       <c r="H29" t="n">
-        <v>250.7855123446468</v>
+        <v>171.4767794617439</v>
       </c>
       <c r="I29" t="n">
-        <v>164.9347582369818</v>
+        <v>88.96168944888386</v>
       </c>
       <c r="J29" t="n">
-        <v>27.59553505073325</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>9.003846283283309</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.84441729479461</v>
+        <v>16.26714561203789</v>
       </c>
       <c r="R29" t="n">
-        <v>126.4712090877855</v>
+        <v>53.3569232810226</v>
       </c>
       <c r="S29" t="n">
-        <v>141.620866379133</v>
+        <v>63.79034712683433</v>
       </c>
       <c r="T29" t="n">
-        <v>115.7667031762512</v>
+        <v>35.76709651222194</v>
       </c>
       <c r="U29" t="n">
-        <v>145.7742456990647</v>
+        <v>65.26830263351927</v>
       </c>
       <c r="V29" t="n">
-        <v>206.1145865111415</v>
+        <v>125.5992177534212</v>
       </c>
       <c r="W29" t="n">
-        <v>214.89866598949</v>
+        <v>134.3832972317697</v>
       </c>
       <c r="X29" t="n">
-        <v>239.3550437115778</v>
+        <v>158.8396749538575</v>
       </c>
       <c r="Y29" t="n">
-        <v>272.8960156271147</v>
+        <v>192.3806468693944</v>
       </c>
     </row>
     <row r="30">
@@ -24758,37 +24758,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>93.44603898854804</v>
+        <v>12.93067023082779</v>
       </c>
       <c r="C30" t="n">
-        <v>112.6677798618026</v>
+        <v>32.15241110408235</v>
       </c>
       <c r="D30" t="n">
-        <v>78.64751966508483</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>95.8226535116962</v>
+        <v>15.30728475397595</v>
       </c>
       <c r="F30" t="n">
-        <v>82.03012448986583</v>
+        <v>1.514755732145574</v>
       </c>
       <c r="G30" t="n">
-        <v>67.20064167127886</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>44.4302758301597</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.90813455000055</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.028154105277792</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24803,31 +24803,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R30" t="n">
-        <v>70.23350203377474</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>118.3475434388305</v>
+        <v>39.00311269197599</v>
       </c>
       <c r="T30" t="n">
-        <v>138.4264012214573</v>
+        <v>58.16512739454826</v>
       </c>
       <c r="U30" t="n">
-        <v>155.8646911314081</v>
+        <v>75.35346973382073</v>
       </c>
       <c r="V30" t="n">
-        <v>152.9833942442951</v>
+        <v>72.4680254865749</v>
       </c>
       <c r="W30" t="n">
-        <v>192.2222977845252</v>
+        <v>111.7069290268049</v>
       </c>
       <c r="X30" t="n">
-        <v>136.4432794290749</v>
+        <v>55.92791067135468</v>
       </c>
       <c r="Y30" t="n">
-        <v>153.8577090958795</v>
+        <v>73.34234033815923</v>
       </c>
     </row>
     <row r="31">
@@ -24837,34 +24837,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.42560181389184</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>36.7495399611543</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>67.5427971881782</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>67.2118021337385</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>171.6050360306021</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>144.9047107016879</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>6.530607103905652</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,34 +24879,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>16.55081508079078</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.28605624895475</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>235.7604713534479</v>
+        <v>55.50785818247075</v>
       </c>
       <c r="S31" t="n">
-        <v>148.2324280102576</v>
+        <v>68.63809955169909</v>
       </c>
       <c r="T31" t="n">
-        <v>214.5591917299661</v>
+        <v>32.15604314999177</v>
       </c>
       <c r="U31" t="n">
-        <v>292.9405845523567</v>
+        <v>110.3145029004934</v>
       </c>
       <c r="V31" t="n">
-        <v>130.0563540966664</v>
+        <v>49.54098533894614</v>
       </c>
       <c r="W31" t="n">
-        <v>297.2835345659783</v>
+        <v>114.6545701588751</v>
       </c>
       <c r="X31" t="n">
-        <v>112.8284461578514</v>
+        <v>32.31307740013111</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.4841404602585</v>
+        <v>31.8551760531553</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.3138436034929</v>
+        <v>175.540669058516</v>
       </c>
       <c r="C32" t="n">
-        <v>166.6120042105041</v>
+        <v>139.8388296655272</v>
       </c>
       <c r="D32" t="n">
-        <v>150.7849734106711</v>
+        <v>124.0117988656942</v>
       </c>
       <c r="E32" t="n">
-        <v>196.3829381344943</v>
+        <v>169.6097635895174</v>
       </c>
       <c r="F32" t="n">
-        <v>240.5748124088521</v>
+        <v>213.8016378638752</v>
       </c>
       <c r="G32" t="n">
-        <v>268.7081899144769</v>
+        <v>242.0528365216853</v>
       </c>
       <c r="H32" t="n">
-        <v>197.0433181319035</v>
+        <v>171.4767794617439</v>
       </c>
       <c r="I32" t="n">
-        <v>111.1925640242385</v>
+        <v>88.96168944888386</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>53.61562662839805</v>
       </c>
       <c r="R32" t="n">
-        <v>72.72901487504205</v>
+        <v>53.3569232810226</v>
       </c>
       <c r="S32" t="n">
-        <v>87.87867216638958</v>
+        <v>63.79034712683433</v>
       </c>
       <c r="T32" t="n">
-        <v>62.02450896350786</v>
+        <v>35.76709651222194</v>
       </c>
       <c r="U32" t="n">
-        <v>92.03205148632134</v>
+        <v>65.26830263351927</v>
       </c>
       <c r="V32" t="n">
-        <v>152.3723922983981</v>
+        <v>125.5992177534212</v>
       </c>
       <c r="W32" t="n">
-        <v>161.1564717767466</v>
+        <v>134.3832972317697</v>
       </c>
       <c r="X32" t="n">
-        <v>185.6128494988344</v>
+        <v>158.8396749538575</v>
       </c>
       <c r="Y32" t="n">
-        <v>219.1538214143713</v>
+        <v>192.3806468693944</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>39.70384477580467</v>
+        <v>12.93067023082779</v>
       </c>
       <c r="C33" t="n">
-        <v>58.92558564905923</v>
+        <v>32.15241110408235</v>
       </c>
       <c r="D33" t="n">
-        <v>24.90532545234146</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>42.08045929895283</v>
+        <v>15.30728475397595</v>
       </c>
       <c r="F33" t="n">
-        <v>28.28793027712246</v>
+        <v>1.514755732145574</v>
       </c>
       <c r="G33" t="n">
-        <v>13.45844745853549</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>16.49130782103137</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>64.60534922608716</v>
+        <v>39.00311269197599</v>
       </c>
       <c r="T33" t="n">
-        <v>84.68420700871391</v>
+        <v>58.16512739454826</v>
       </c>
       <c r="U33" t="n">
-        <v>102.1224969186647</v>
+        <v>75.35346973382073</v>
       </c>
       <c r="V33" t="n">
-        <v>99.24120003155178</v>
+        <v>72.4680254865749</v>
       </c>
       <c r="W33" t="n">
-        <v>138.4801035717818</v>
+        <v>111.7069290268049</v>
       </c>
       <c r="X33" t="n">
-        <v>82.70108521633156</v>
+        <v>55.92791067135468</v>
       </c>
       <c r="Y33" t="n">
-        <v>100.1155148831361</v>
+        <v>73.34234033815923</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.68340760114847</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>9.147735422139334</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>45.00598571667392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.80060297543483</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>13.46960792099512</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>171.6050360306021</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25107,10 +25107,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>89.48026908651903</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.54386203621138</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>79.90468149132155</v>
+        <v>55.50785818247075</v>
       </c>
       <c r="S34" t="n">
-        <v>94.49023379751429</v>
+        <v>68.63809955169909</v>
       </c>
       <c r="T34" t="n">
-        <v>58.7034018678398</v>
+        <v>32.15604314999177</v>
       </c>
       <c r="U34" t="n">
-        <v>292.9405845523567</v>
+        <v>110.3145029004934</v>
       </c>
       <c r="V34" t="n">
-        <v>76.31415988392303</v>
+        <v>49.54098533894614</v>
       </c>
       <c r="W34" t="n">
-        <v>141.427744703852</v>
+        <v>114.6545701588751</v>
       </c>
       <c r="X34" t="n">
-        <v>59.08625194510799</v>
+        <v>32.31307740013111</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.62835059813219</v>
+        <v>31.8551760531553</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.3138436034929</v>
+        <v>175.540669058516</v>
       </c>
       <c r="C35" t="n">
-        <v>166.6120042105041</v>
+        <v>139.8388296655272</v>
       </c>
       <c r="D35" t="n">
-        <v>150.7849734106711</v>
+        <v>124.0117988656942</v>
       </c>
       <c r="E35" t="n">
-        <v>196.3829381344943</v>
+        <v>169.6097635895174</v>
       </c>
       <c r="F35" t="n">
-        <v>240.5748124088521</v>
+        <v>213.8016378638752</v>
       </c>
       <c r="G35" t="n">
-        <v>268.7081899144769</v>
+        <v>242.0528365216853</v>
       </c>
       <c r="H35" t="n">
-        <v>197.0433181319035</v>
+        <v>171.4767794617439</v>
       </c>
       <c r="I35" t="n">
-        <v>111.1925640242385</v>
+        <v>88.96168944888386</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25198,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>78.50288611773993</v>
       </c>
       <c r="R35" t="n">
-        <v>72.72901487504208</v>
+        <v>53.3569232810226</v>
       </c>
       <c r="S35" t="n">
-        <v>87.87867216638958</v>
+        <v>63.79034712683433</v>
       </c>
       <c r="T35" t="n">
-        <v>196.5565193737934</v>
+        <v>35.76709651222194</v>
       </c>
       <c r="U35" t="n">
-        <v>92.03205148632134</v>
+        <v>65.26830263351927</v>
       </c>
       <c r="V35" t="n">
-        <v>152.3723922983981</v>
+        <v>125.5992177534212</v>
       </c>
       <c r="W35" t="n">
-        <v>161.1564717767466</v>
+        <v>134.3832972317697</v>
       </c>
       <c r="X35" t="n">
-        <v>185.6128494988344</v>
+        <v>158.8396749538575</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.1538214143713</v>
+        <v>192.3806468693944</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>39.70384477580467</v>
+        <v>12.93067023082779</v>
       </c>
       <c r="C36" t="n">
-        <v>58.92558564905923</v>
+        <v>32.15241110408235</v>
       </c>
       <c r="D36" t="n">
-        <v>24.90532545234146</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>42.08045929895283</v>
+        <v>15.30728475397595</v>
       </c>
       <c r="F36" t="n">
-        <v>28.28793027712246</v>
+        <v>1.514755732145574</v>
       </c>
       <c r="G36" t="n">
-        <v>13.45844745853549</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>16.49130782103137</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>64.60534922608716</v>
+        <v>39.00311269197599</v>
       </c>
       <c r="T36" t="n">
-        <v>84.68420700871391</v>
+        <v>58.16512739454826</v>
       </c>
       <c r="U36" t="n">
-        <v>102.1224969186647</v>
+        <v>75.35346973382073</v>
       </c>
       <c r="V36" t="n">
-        <v>99.24120003155178</v>
+        <v>72.4680254865749</v>
       </c>
       <c r="W36" t="n">
-        <v>138.4801035717818</v>
+        <v>111.7069290268049</v>
       </c>
       <c r="X36" t="n">
-        <v>82.70108521633156</v>
+        <v>55.92791067135468</v>
       </c>
       <c r="Y36" t="n">
-        <v>100.1155148831361</v>
+        <v>73.34234033815923</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.68340760114847</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>9.147735422139334</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.80060297543483</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>13.46960792099512</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>15.74924616847576</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.54386203621138</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>79.90468149132155</v>
+        <v>55.50785818247075</v>
       </c>
       <c r="S37" t="n">
-        <v>94.49023379751429</v>
+        <v>68.63809955169909</v>
       </c>
       <c r="T37" t="n">
-        <v>58.7034018678398</v>
+        <v>32.15604314999177</v>
       </c>
       <c r="U37" t="n">
-        <v>137.0847946902303</v>
+        <v>110.3145029004934</v>
       </c>
       <c r="V37" t="n">
-        <v>76.31415988392303</v>
+        <v>49.54098533894614</v>
       </c>
       <c r="W37" t="n">
-        <v>141.427744703852</v>
+        <v>114.6545701588751</v>
       </c>
       <c r="X37" t="n">
-        <v>59.08625194510799</v>
+        <v>32.31307740013111</v>
       </c>
       <c r="Y37" t="n">
-        <v>58.62835059813219</v>
+        <v>31.8551760531553</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.3138436034929</v>
+        <v>175.540669058516</v>
       </c>
       <c r="C38" t="n">
-        <v>166.6120042105041</v>
+        <v>139.8388296655272</v>
       </c>
       <c r="D38" t="n">
-        <v>150.7849734106711</v>
+        <v>124.0117988656942</v>
       </c>
       <c r="E38" t="n">
-        <v>196.3829381344943</v>
+        <v>169.6097635895174</v>
       </c>
       <c r="F38" t="n">
-        <v>240.5748124088521</v>
+        <v>213.8016378638752</v>
       </c>
       <c r="G38" t="n">
-        <v>268.7081899144769</v>
+        <v>242.0528365216853</v>
       </c>
       <c r="H38" t="n">
-        <v>197.0433181319035</v>
+        <v>171.4767794617439</v>
       </c>
       <c r="I38" t="n">
-        <v>111.1925640242385</v>
+        <v>88.96168944888386</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>72.72901487504208</v>
+        <v>53.3569232810226</v>
       </c>
       <c r="S38" t="n">
-        <v>87.87867216638958</v>
+        <v>63.79034712683433</v>
       </c>
       <c r="T38" t="n">
-        <v>62.02450896350786</v>
+        <v>35.76709651222194</v>
       </c>
       <c r="U38" t="n">
-        <v>92.03205148632134</v>
+        <v>65.26830263351927</v>
       </c>
       <c r="V38" t="n">
-        <v>152.3723922983981</v>
+        <v>125.5992177534212</v>
       </c>
       <c r="W38" t="n">
-        <v>161.1564717767466</v>
+        <v>134.3832972317697</v>
       </c>
       <c r="X38" t="n">
-        <v>185.6128494988344</v>
+        <v>158.8396749538575</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.1538214143713</v>
+        <v>192.3806468693944</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>39.70384477580467</v>
+        <v>12.93067023082779</v>
       </c>
       <c r="C39" t="n">
-        <v>58.92558564905923</v>
+        <v>32.15241110408235</v>
       </c>
       <c r="D39" t="n">
-        <v>24.90532545234146</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>42.08045929895283</v>
+        <v>15.30728475397595</v>
       </c>
       <c r="F39" t="n">
-        <v>28.28793027712246</v>
+        <v>1.514755732145574</v>
       </c>
       <c r="G39" t="n">
-        <v>13.45844745853549</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>16.49130782103137</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>64.60534922608716</v>
+        <v>39.00311269197599</v>
       </c>
       <c r="T39" t="n">
-        <v>84.68420700871391</v>
+        <v>58.16512739454826</v>
       </c>
       <c r="U39" t="n">
-        <v>102.1224969186647</v>
+        <v>75.35346973382073</v>
       </c>
       <c r="V39" t="n">
-        <v>99.24120003155178</v>
+        <v>72.4680254865749</v>
       </c>
       <c r="W39" t="n">
-        <v>138.4801035717818</v>
+        <v>111.7069290268049</v>
       </c>
       <c r="X39" t="n">
-        <v>82.70108521633156</v>
+        <v>55.92791067135468</v>
       </c>
       <c r="Y39" t="n">
-        <v>100.1155148831361</v>
+        <v>73.34234033815923</v>
       </c>
     </row>
     <row r="40">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.68340760114847</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>9.147735422139334</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>148.2868577786272</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>13.46960792099512</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>15.74924616847576</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>173.3996518983377</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R40" t="n">
-        <v>79.90468149132155</v>
+        <v>55.50785818247075</v>
       </c>
       <c r="S40" t="n">
-        <v>250.3460236596406</v>
+        <v>68.63809955169909</v>
       </c>
       <c r="T40" t="n">
-        <v>58.7034018678398</v>
+        <v>32.15604314999177</v>
       </c>
       <c r="U40" t="n">
-        <v>137.0847946902303</v>
+        <v>110.3145029004934</v>
       </c>
       <c r="V40" t="n">
-        <v>76.31415988392303</v>
+        <v>49.54098533894614</v>
       </c>
       <c r="W40" t="n">
-        <v>141.427744703852</v>
+        <v>114.6545701588751</v>
       </c>
       <c r="X40" t="n">
-        <v>59.08625194510799</v>
+        <v>32.31307740013111</v>
       </c>
       <c r="Y40" t="n">
-        <v>58.62835059813219</v>
+        <v>31.8551760531553</v>
       </c>
     </row>
     <row r="41">
@@ -25627,73 +25627,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>304.4274392528758</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C41" t="n">
-        <v>268.7255998598871</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>252.8985690600541</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E41" t="n">
-        <v>298.4965337838773</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F41" t="n">
-        <v>342.6884080582351</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>370.8217855638599</v>
+        <v>424.6818009287885</v>
       </c>
       <c r="H41" t="n">
-        <v>299.1569137812864</v>
+        <v>354.1057438688471</v>
       </c>
       <c r="I41" t="n">
-        <v>213.3061596736214</v>
+        <v>271.5906538559871</v>
       </c>
       <c r="J41" t="n">
-        <v>75.96693648737282</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K41" t="n">
-        <v>57.37524771992288</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L41" t="n">
-        <v>23.53774442434916</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P41" t="n">
-        <v>43.31589837459113</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.2158187314342</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R41" t="n">
-        <v>174.842610524425</v>
+        <v>235.9858876881258</v>
       </c>
       <c r="S41" t="n">
-        <v>213.2393645453097</v>
+        <v>246.4193115339375</v>
       </c>
       <c r="T41" t="n">
-        <v>164.1381046128908</v>
+        <v>218.3960609193252</v>
       </c>
       <c r="U41" t="n">
-        <v>194.1456471357043</v>
+        <v>247.8972670406225</v>
       </c>
       <c r="V41" t="n">
-        <v>254.485987947781</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W41" t="n">
-        <v>263.2700674261296</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
-        <v>287.7264451482174</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
         <v>375.0096112764976</v>
@@ -25706,37 +25706,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>141.8174404251876</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C42" t="n">
-        <v>161.0391812984422</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D42" t="n">
-        <v>127.0189211017244</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E42" t="n">
-        <v>144.1940549483358</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F42" t="n">
-        <v>130.4015259265054</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>115.5720431079184</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H42" t="n">
-        <v>92.80167726679927</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I42" t="n">
-        <v>72.27953598664014</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J42" t="n">
-        <v>54.39955554191738</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K42" t="n">
-        <v>2.804846159214449</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25748,34 +25748,34 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.36194612963489</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R42" t="n">
-        <v>118.6049034704143</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S42" t="n">
-        <v>166.7189448754701</v>
+        <v>221.6320770990792</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7978026580969</v>
+        <v>240.7940918016515</v>
       </c>
       <c r="U42" t="n">
-        <v>204.2360925680476</v>
+        <v>257.9824341409239</v>
       </c>
       <c r="V42" t="n">
-        <v>201.3547956809347</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5936992211648</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X42" t="n">
-        <v>184.8146808657145</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y42" t="n">
-        <v>202.2291105325191</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="43">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.7970032505314</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C43" t="n">
         <v>165.0035252842657</v>
       </c>
       <c r="D43" t="n">
-        <v>85.12094139779389</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E43" t="n">
         <v>132.9174244808186</v>
@@ -25800,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>115.9141986248178</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H43" t="n">
-        <v>115.5832035703781</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I43" t="n">
-        <v>117.8628418178587</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J43" t="n">
-        <v>144.9047107016879</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K43" t="n">
-        <v>54.90200854054524</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L43" t="n">
-        <v>89.93937537569462</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M43" t="n">
-        <v>35.73807487377569</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N43" t="n">
-        <v>74.45517414732592</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O43" t="n">
-        <v>48.37140143663959</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P43" t="n">
-        <v>64.92221651743037</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q43" t="n">
-        <v>119.6574576855943</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R43" t="n">
-        <v>235.7604713534479</v>
+        <v>238.136822589574</v>
       </c>
       <c r="S43" t="n">
-        <v>250.3460236596406</v>
+        <v>251.2670639588023</v>
       </c>
       <c r="T43" t="n">
-        <v>214.5591917299661</v>
+        <v>214.785007557095</v>
       </c>
       <c r="U43" t="n">
-        <v>239.1983903396133</v>
+        <v>292.9434673075966</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25864,76 +25864,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>304.4274392528758</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C44" t="n">
-        <v>268.7255998598871</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D44" t="n">
         <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>298.4965337838773</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F44" t="n">
-        <v>342.6884080582351</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>370.8217855638599</v>
+        <v>424.6818009287885</v>
       </c>
       <c r="H44" t="n">
-        <v>299.1569137812864</v>
+        <v>354.1057438688471</v>
       </c>
       <c r="I44" t="n">
-        <v>213.3061596736214</v>
+        <v>271.5906538559871</v>
       </c>
       <c r="J44" t="n">
-        <v>75.96693648737282</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K44" t="n">
-        <v>57.37524771992288</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L44" t="n">
-        <v>77.27993863709253</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N44" t="n">
-        <v>26.98324440689782</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O44" t="n">
-        <v>42.17426948930461</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P44" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.2158187314342</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R44" t="n">
-        <v>174.842610524425</v>
+        <v>235.9858876881258</v>
       </c>
       <c r="S44" t="n">
-        <v>189.9922678157725</v>
+        <v>246.4193115339375</v>
       </c>
       <c r="T44" t="n">
-        <v>164.1381046128908</v>
+        <v>218.3960609193252</v>
       </c>
       <c r="U44" t="n">
-        <v>194.1456471357043</v>
+        <v>247.8972670406225</v>
       </c>
       <c r="V44" t="n">
-        <v>254.485987947781</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
-        <v>263.2700674261296</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>287.7264451482174</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>321.2674170637542</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="45">
@@ -25943,37 +25943,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>141.8174404251876</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C45" t="n">
-        <v>161.0391812984422</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D45" t="n">
-        <v>127.0189211017244</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E45" t="n">
-        <v>144.1940549483358</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F45" t="n">
-        <v>130.4015259265054</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>115.5720431079184</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H45" t="n">
-        <v>92.80167726679927</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I45" t="n">
-        <v>72.27953598664014</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J45" t="n">
-        <v>54.39955554191738</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K45" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25985,34 +25985,34 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.36194612963489</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R45" t="n">
-        <v>172.3470976831577</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S45" t="n">
-        <v>166.7189448754701</v>
+        <v>221.6320770990792</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7978026580969</v>
+        <v>240.7940918016515</v>
       </c>
       <c r="U45" t="n">
-        <v>204.2360925680476</v>
+        <v>257.9824341409239</v>
       </c>
       <c r="V45" t="n">
-        <v>201.3547956809347</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5936992211648</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X45" t="n">
-        <v>184.8146808657145</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y45" t="n">
-        <v>202.2291105325191</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="46">
@@ -26022,76 +26022,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>119.7970032505314</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C46" t="n">
-        <v>111.2613310715223</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D46" t="n">
-        <v>85.12094139779389</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E46" t="n">
-        <v>79.17523026807523</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F46" t="n">
-        <v>73.22951913835659</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>115.9141986248178</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H46" t="n">
-        <v>115.5832035703781</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I46" t="n">
-        <v>117.8628418178587</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J46" t="n">
-        <v>91.16251648894458</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K46" t="n">
-        <v>54.90200854054524</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L46" t="n">
-        <v>36.19718116295125</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M46" t="n">
-        <v>35.73807487377569</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N46" t="n">
-        <v>20.71297993458255</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O46" t="n">
-        <v>48.37140143663959</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P46" t="n">
-        <v>64.92221651743037</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q46" t="n">
-        <v>119.6574576855943</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R46" t="n">
-        <v>182.0182771407045</v>
+        <v>238.136822589574</v>
       </c>
       <c r="S46" t="n">
-        <v>196.6038294468972</v>
+        <v>251.2670639588023</v>
       </c>
       <c r="T46" t="n">
-        <v>160.8169975172228</v>
+        <v>214.785007557095</v>
       </c>
       <c r="U46" t="n">
-        <v>239.1983903396133</v>
+        <v>292.9434673075966</v>
       </c>
       <c r="V46" t="n">
-        <v>178.427755533306</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W46" t="n">
-        <v>243.5413403532349</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X46" t="n">
-        <v>161.199847594491</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.7419462475152</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658391.4363902484</v>
+        <v>661597.844165319</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658391.4363902485</v>
+        <v>661597.8441653191</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>658391.4363902485</v>
+        <v>661597.8441653191</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658391.4363902485</v>
+        <v>661597.8441653191</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658391.4363902484</v>
+        <v>661597.8441653191</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>489963.7235076223</v>
+        <v>668295.6533560617</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>489963.7235076224</v>
+        <v>668295.6533560617</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>618016.3245022102</v>
+        <v>668295.6533560617</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>618016.3245022102</v>
+        <v>668295.6533560617</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>618016.3245022102</v>
+        <v>668295.6533560617</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>374708.2178765126</v>
+        <v>233141.9672839685</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>374708.2178765126</v>
+        <v>233141.9672839685</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>897292.1148212296</v>
+      </c>
+      <c r="C2" t="n">
+        <v>897292.1148212294</v>
+      </c>
+      <c r="D2" t="n">
         <v>897292.1148212297</v>
       </c>
-      <c r="C2" t="n">
-        <v>897292.1148212296</v>
-      </c>
-      <c r="D2" t="n">
-        <v>897292.1148212294</v>
-      </c>
       <c r="E2" t="n">
-        <v>697120.3444132034</v>
+        <v>700515.3644103379</v>
       </c>
       <c r="F2" t="n">
-        <v>697120.3444132034</v>
+        <v>700515.364410338</v>
       </c>
       <c r="G2" t="n">
-        <v>697120.3444132033</v>
+        <v>700515.3644103378</v>
       </c>
       <c r="H2" t="n">
-        <v>697120.3444132035</v>
+        <v>700515.3644103376</v>
       </c>
       <c r="I2" t="n">
-        <v>697120.3444132034</v>
+        <v>700515.3644103379</v>
       </c>
       <c r="J2" t="n">
-        <v>518785.1190080708</v>
+        <v>707607.1623770065</v>
       </c>
       <c r="K2" t="n">
-        <v>518785.1190080708</v>
+        <v>707607.1623770065</v>
       </c>
       <c r="L2" t="n">
-        <v>654370.2259435159</v>
+        <v>707607.1623770066</v>
       </c>
       <c r="M2" t="n">
-        <v>654370.2259435157</v>
+        <v>707607.1623770064</v>
       </c>
       <c r="N2" t="n">
-        <v>654370.2259435158</v>
+        <v>707607.1623770067</v>
       </c>
       <c r="O2" t="n">
-        <v>396749.877751602</v>
+        <v>246856.2006536138</v>
       </c>
       <c r="P2" t="n">
-        <v>396749.8777516022</v>
+        <v>246856.2006536138</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525555.2101986891</v>
+        <v>507622.837363618</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81690.87651950636</v>
+        <v>146103.1715256826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42993.75537019469</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>276476.7642440409</v>
+        <v>287704.1268912582</v>
       </c>
       <c r="F4" t="n">
-        <v>276476.7642440408</v>
+        <v>287704.1268912582</v>
       </c>
       <c r="G4" t="n">
-        <v>276476.7642440408</v>
+        <v>287704.1268912582</v>
       </c>
       <c r="H4" t="n">
-        <v>276476.7642440408</v>
+        <v>287704.1268912582</v>
       </c>
       <c r="I4" t="n">
-        <v>276476.7642440408</v>
+        <v>287704.1268912582</v>
       </c>
       <c r="J4" t="n">
-        <v>163379.125271507</v>
+        <v>292201.643320098</v>
       </c>
       <c r="K4" t="n">
-        <v>163379.125271507</v>
+        <v>292201.6433200979</v>
       </c>
       <c r="L4" t="n">
-        <v>249365.2530227778</v>
+        <v>292201.6433200979</v>
       </c>
       <c r="M4" t="n">
-        <v>249365.2530227778</v>
+        <v>292201.6433200979</v>
       </c>
       <c r="N4" t="n">
-        <v>249365.2530227778</v>
+        <v>292201.6433200979</v>
       </c>
       <c r="O4" t="n">
-        <v>85986.12775127079</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>85986.12775127076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25036.80452378746</v>
+        <v>24987.82007797207</v>
       </c>
       <c r="F5" t="n">
-        <v>25036.80452378746</v>
+        <v>24987.82007797207</v>
       </c>
       <c r="G5" t="n">
-        <v>25036.80452378746</v>
+        <v>24987.82007797207</v>
       </c>
       <c r="H5" t="n">
-        <v>25036.80452378746</v>
+        <v>24987.82007797207</v>
       </c>
       <c r="I5" t="n">
-        <v>25036.80452378746</v>
+        <v>24987.82007797207</v>
       </c>
       <c r="J5" t="n">
-        <v>19094.2055636371</v>
+        <v>25224.13744671726</v>
       </c>
       <c r="K5" t="n">
-        <v>19094.2055636371</v>
+        <v>25224.13744671726</v>
       </c>
       <c r="L5" t="n">
-        <v>23612.25808890822</v>
+        <v>25224.13744671726</v>
       </c>
       <c r="M5" t="n">
-        <v>23612.25808890822</v>
+        <v>25224.13744671726</v>
       </c>
       <c r="N5" t="n">
-        <v>23612.25808890822</v>
+        <v>25224.13744671726</v>
       </c>
       <c r="O5" t="n">
-        <v>15027.67021626025</v>
+        <v>9870.703037976498</v>
       </c>
       <c r="P5" t="n">
-        <v>15027.67021626025</v>
+        <v>9870.703037976498</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294614.7411468935</v>
+        <v>294562.002086701</v>
       </c>
       <c r="C6" t="n">
-        <v>294614.7411468934</v>
+        <v>294562.0020867008</v>
       </c>
       <c r="D6" t="n">
-        <v>294614.7411468931</v>
+        <v>294562.0020867011</v>
       </c>
       <c r="E6" t="n">
-        <v>-129948.434553314</v>
+        <v>-125318.1798274499</v>
       </c>
       <c r="F6" t="n">
-        <v>395606.7756453751</v>
+        <v>382304.6575361682</v>
       </c>
       <c r="G6" t="n">
-        <v>395606.775645375</v>
+        <v>382304.657536168</v>
       </c>
       <c r="H6" t="n">
-        <v>395606.7756453753</v>
+        <v>382304.6575361679</v>
       </c>
       <c r="I6" t="n">
-        <v>395606.7756453752</v>
+        <v>382304.6575361681</v>
       </c>
       <c r="J6" t="n">
-        <v>254620.9116534204</v>
+        <v>238756.4445675322</v>
       </c>
       <c r="K6" t="n">
-        <v>336311.7881729268</v>
+        <v>384859.6160932148</v>
       </c>
       <c r="L6" t="n">
-        <v>338398.9594616352</v>
+        <v>384859.616093215</v>
       </c>
       <c r="M6" t="n">
-        <v>381392.7148318297</v>
+        <v>384859.6160932147</v>
       </c>
       <c r="N6" t="n">
-        <v>381392.7148318297</v>
+        <v>384859.6160932151</v>
       </c>
       <c r="O6" t="n">
-        <v>295736.079784071</v>
+        <v>218865.094273011</v>
       </c>
       <c r="P6" t="n">
-        <v>295736.0797840712</v>
+        <v>218865.094273011</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F2" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="I2" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="J2" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="K2" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="L2" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="M2" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="N2" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="O2" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="F3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="G3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="H3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="I3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="J3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="K3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="M3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="N3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="O3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="P3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53.74219421274336</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>482.0925546325286</v>
+        <v>452.7845430264449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="H11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="I11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="J11" t="n">
-        <v>129.7091307001162</v>
+        <v>118.9149574776826</v>
       </c>
       <c r="K11" t="n">
-        <v>111.1174419326663</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L11" t="n">
-        <v>77.27993863709412</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M11" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N11" t="n">
-        <v>26.98324440689782</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O11" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P11" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.9580129441776</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y11" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="12">
@@ -28168,34 +28168,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G12" t="n">
-        <v>169.3142373206618</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H12" t="n">
-        <v>146.5438714795426</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I12" t="n">
-        <v>126.0217301993835</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J12" t="n">
-        <v>108.1417497546608</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K12" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -28210,34 +28210,34 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.69571729742788</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.10414034237826</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R12" t="n">
-        <v>172.3470976831577</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y12" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="13">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>172.8007569115648</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C13" t="n">
         <v>165.0035252842657</v>
@@ -28262,61 +28262,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.6563928375612</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H13" t="n">
-        <v>169.3253977831214</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>171.6050360306021</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J13" t="n">
-        <v>144.9047107016879</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K13" t="n">
-        <v>108.6442027532886</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L13" t="n">
-        <v>89.93937537569462</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>89.48026908651906</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N13" t="n">
-        <v>74.45517414732592</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O13" t="n">
-        <v>102.113595649383</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P13" t="n">
-        <v>118.6644107301737</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q13" t="n">
-        <v>172.8007569115648</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R13" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S13" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T13" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U13" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V13" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W13" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X13" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F14" t="n">
-        <v>172.8007569115658</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="H14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="I14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="J14" t="n">
-        <v>129.7091307001162</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K14" t="n">
-        <v>111.1174419326663</v>
+        <v>120.5026053902099</v>
       </c>
       <c r="L14" t="n">
-        <v>77.27993863709253</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N14" t="n">
-        <v>26.98324440689782</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O14" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P14" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.9580129441776</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="15">
@@ -28405,34 +28405,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G15" t="n">
-        <v>169.3142373206618</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H15" t="n">
-        <v>146.5438714795426</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I15" t="n">
-        <v>126.0217301993835</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J15" t="n">
-        <v>108.1417497546608</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K15" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -28447,34 +28447,34 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>19.69571729742788</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.10414034237826</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R15" t="n">
-        <v>172.3470976831577</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y15" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="16">
@@ -28484,7 +28484,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172.8007569115648</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C16" t="n">
         <v>165.0035252842657</v>
@@ -28499,61 +28499,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.6563928375612</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H16" t="n">
-        <v>169.3253977831214</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I16" t="n">
-        <v>171.6050360306021</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J16" t="n">
-        <v>144.9047107016879</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K16" t="n">
-        <v>108.6442027532886</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L16" t="n">
-        <v>89.93937537569462</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M16" t="n">
-        <v>89.48026908651906</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N16" t="n">
-        <v>74.45517414732592</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O16" t="n">
-        <v>102.113595649383</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P16" t="n">
-        <v>118.6644107301737</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q16" t="n">
-        <v>172.8007569115648</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R16" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S16" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T16" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U16" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V16" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W16" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X16" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="H17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="I17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="J17" t="n">
-        <v>129.7091307001162</v>
+        <v>67.72039861721042</v>
       </c>
       <c r="K17" t="n">
-        <v>111.1174419326663</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L17" t="n">
-        <v>77.27993863709253</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M17" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N17" t="n">
-        <v>26.98324440689782</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O17" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P17" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.9580129441776</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X17" t="n">
-        <v>172.8007569115658</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y17" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="18">
@@ -28642,34 +28642,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G18" t="n">
-        <v>169.3142373206618</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H18" t="n">
-        <v>146.5438714795426</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I18" t="n">
-        <v>126.0217301993835</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J18" t="n">
-        <v>108.1417497546608</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K18" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -28684,34 +28684,34 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>19.69571729742788</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.10414034237826</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R18" t="n">
-        <v>172.3470976831577</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y18" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="19">
@@ -28721,7 +28721,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>172.8007569115648</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C19" t="n">
         <v>165.0035252842657</v>
@@ -28736,61 +28736,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.6563928375612</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H19" t="n">
-        <v>169.3253977831214</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I19" t="n">
-        <v>171.6050360306021</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J19" t="n">
-        <v>144.9047107016879</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K19" t="n">
-        <v>108.6442027532886</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L19" t="n">
-        <v>89.93937537569462</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>89.48026908651906</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N19" t="n">
-        <v>74.45517414732592</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O19" t="n">
-        <v>102.113595649383</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P19" t="n">
-        <v>118.6644107301737</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q19" t="n">
-        <v>172.8007569115648</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R19" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S19" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T19" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U19" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V19" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W19" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X19" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="H20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="I20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="J20" t="n">
-        <v>129.7091307001162</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K20" t="n">
-        <v>111.1174419326663</v>
+        <v>65.345052250172</v>
       </c>
       <c r="L20" t="n">
-        <v>77.27993863709253</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M20" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N20" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P20" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.9580129441776</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y20" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="21">
@@ -28879,37 +28879,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G21" t="n">
-        <v>169.3142373206618</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H21" t="n">
-        <v>146.5438714795426</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I21" t="n">
-        <v>126.0217301993835</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J21" t="n">
-        <v>108.1417497546608</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K21" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -28921,34 +28921,34 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>19.69571729742788</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.10414034237826</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R21" t="n">
-        <v>172.3470976831577</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y21" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="22">
@@ -28958,7 +28958,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.8007569115648</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C22" t="n">
         <v>165.0035252842657</v>
@@ -28973,61 +28973,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.6563928375612</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H22" t="n">
-        <v>169.3253977831214</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I22" t="n">
-        <v>171.6050360306021</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J22" t="n">
-        <v>144.9047107016879</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K22" t="n">
-        <v>108.6442027532886</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L22" t="n">
-        <v>89.93937537569462</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M22" t="n">
-        <v>89.48026908651906</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N22" t="n">
-        <v>74.45517414732592</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O22" t="n">
-        <v>102.113595649383</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P22" t="n">
-        <v>118.6644107301737</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q22" t="n">
-        <v>172.8007569115686</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R22" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S22" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T22" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U22" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V22" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W22" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X22" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="H23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="I23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="J23" t="n">
-        <v>129.7091307001162</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K23" t="n">
-        <v>111.1174419326663</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L23" t="n">
-        <v>77.27993863709253</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M23" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N23" t="n">
-        <v>26.98324440689782</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O23" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P23" t="n">
-        <v>97.0580925873345</v>
+        <v>5.234872334041527</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.9580129441776</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y23" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="24">
@@ -29116,37 +29116,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="C24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="D24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="E24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="F24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="G24" t="n">
-        <v>169.3142373206618</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H24" t="n">
-        <v>146.5438714795426</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I24" t="n">
-        <v>126.0217301993835</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J24" t="n">
-        <v>108.1417497546608</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K24" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -29158,34 +29158,34 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19.69571729742788</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.10414034237826</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R24" t="n">
-        <v>172.3470976831577</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y24" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="25">
@@ -29195,7 +29195,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172.8007569115648</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C25" t="n">
         <v>165.0035252842657</v>
@@ -29210,61 +29210,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.6563928375612</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H25" t="n">
-        <v>169.3253977831214</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I25" t="n">
-        <v>171.6050360306021</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J25" t="n">
-        <v>144.9047107016879</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K25" t="n">
-        <v>108.6442027532886</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L25" t="n">
-        <v>89.93937537569462</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M25" t="n">
-        <v>89.48026908651906</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N25" t="n">
-        <v>74.45517414732592</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O25" t="n">
-        <v>102.113595649383</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P25" t="n">
-        <v>118.6644107301737</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q25" t="n">
-        <v>172.8007569115648</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R25" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="S25" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="T25" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="U25" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="V25" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="W25" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="X25" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.8007569115648</v>
+        <v>179.8179714281789</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="E26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="H26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="J26" t="n">
-        <v>102.113595649383</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K26" t="n">
-        <v>102.113595649383</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L26" t="n">
-        <v>77.27993863709253</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M26" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N26" t="n">
-        <v>26.98324440689782</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O26" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P26" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.113595649383</v>
+        <v>126.5097402379438</v>
       </c>
       <c r="R26" t="n">
-        <v>72.53911503502275</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="27">
@@ -29353,34 +29353,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D27" t="n">
-        <v>102.113595649383</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G27" t="n">
-        <v>102.113595649383</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H27" t="n">
-        <v>102.113595649383</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I27" t="n">
-        <v>102.113595649383</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J27" t="n">
-        <v>102.113595649383</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K27" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -29395,34 +29395,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>19.69571729742788</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.10414034237826</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R27" t="n">
-        <v>102.113595649383</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.113595649383</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C28" t="n">
-        <v>102.113595649383</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D28" t="n">
-        <v>102.113595649383</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>102.113595649383</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>102.113595649383</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H28" t="n">
-        <v>102.113595649383</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J28" t="n">
-        <v>102.113595649383</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K28" t="n">
-        <v>102.113595649383</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L28" t="n">
-        <v>89.93937537569462</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>102.113595649383</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R28" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S28" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T28" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U28" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W28" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X28" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D29" t="n">
-        <v>44.14982271137396</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="E29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="H29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="I29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="J29" t="n">
-        <v>102.113595649383</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K29" t="n">
-        <v>102.113595649383</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L29" t="n">
-        <v>77.27993863709253</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M29" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N29" t="n">
-        <v>26.98324440689782</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O29" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P29" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.113595649383</v>
+        <v>148.4142262801858</v>
       </c>
       <c r="R29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="30">
@@ -29590,34 +29590,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D30" t="n">
-        <v>102.113595649383</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G30" t="n">
-        <v>102.113595649383</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H30" t="n">
-        <v>102.113595649383</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I30" t="n">
-        <v>102.113595649383</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J30" t="n">
-        <v>102.113595649383</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K30" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -29632,34 +29632,34 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.69571729742788</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.10414034237826</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.113595649383</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.113595649383</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D31" t="n">
-        <v>102.113595649383</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>102.113595649383</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H31" t="n">
-        <v>102.113595649383</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K31" t="n">
-        <v>102.113595649383</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L31" t="n">
-        <v>89.93937537569462</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M31" t="n">
-        <v>89.48026908651906</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N31" t="n">
-        <v>74.45517414732592</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O31" t="n">
-        <v>102.113595649383</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P31" t="n">
-        <v>102.113595649383</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.113595649383</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S31" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V31" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X31" t="n">
-        <v>102.113595649383</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="E32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="H32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="I32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="J32" t="n">
-        <v>129.7091307001162</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K32" t="n">
-        <v>111.1174419326662</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L32" t="n">
-        <v>77.27993863709247</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M32" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N32" t="n">
-        <v>26.98324440689777</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O32" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P32" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.9580129441776</v>
+        <v>111.0657452638257</v>
       </c>
       <c r="R32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y32" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="33">
@@ -29827,37 +29827,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D33" t="n">
-        <v>155.8557898621263</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G33" t="n">
-        <v>155.8557898621263</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H33" t="n">
-        <v>146.5438714795426</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I33" t="n">
-        <v>126.0217301993835</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J33" t="n">
-        <v>108.1417497546608</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K33" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -29869,34 +29869,34 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19.69571729742785</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q33" t="n">
-        <v>95.10414034237826</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R33" t="n">
-        <v>155.8557898621263</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y33" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.8557898621263</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C34" t="n">
-        <v>155.8557898621263</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D34" t="n">
         <v>138.8631356105373</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91143876414468</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F34" t="n">
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>155.8557898621263</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H34" t="n">
-        <v>155.8557898621263</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J34" t="n">
-        <v>144.9047107016879</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K34" t="n">
-        <v>108.6442027532886</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L34" t="n">
-        <v>89.93937537569462</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N34" t="n">
-        <v>74.45517414732592</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>102.1135956493829</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P34" t="n">
-        <v>118.6644107301737</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q34" t="n">
-        <v>155.8557898621263</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R34" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S34" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T34" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V34" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W34" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X34" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="E35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="H35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="I35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="J35" t="n">
-        <v>129.7091307001162</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K35" t="n">
-        <v>111.1174419326663</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L35" t="n">
-        <v>77.27993863709253</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M35" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N35" t="n">
-        <v>26.98324440689782</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O35" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P35" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.9580129441776</v>
+        <v>86.17848577448373</v>
       </c>
       <c r="R35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T35" t="n">
-        <v>21.32377945184077</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y35" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="36">
@@ -30064,37 +30064,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D36" t="n">
-        <v>155.8557898621263</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G36" t="n">
-        <v>155.8557898621263</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H36" t="n">
-        <v>146.5438714795426</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I36" t="n">
-        <v>126.0217301993835</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J36" t="n">
-        <v>108.1417497546608</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K36" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -30106,34 +30106,34 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.69571729742788</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.10414034237826</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R36" t="n">
-        <v>155.8557898621263</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y36" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="37">
@@ -30143,10 +30143,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.8557898621263</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C37" t="n">
-        <v>155.8557898621263</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D37" t="n">
         <v>138.8631356105373</v>
@@ -30158,61 +30158,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>155.8557898621263</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H37" t="n">
-        <v>155.8557898621263</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I37" t="n">
-        <v>155.8557898621263</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J37" t="n">
-        <v>144.9047107016879</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K37" t="n">
-        <v>108.6442027532886</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L37" t="n">
-        <v>89.93937537569462</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M37" t="n">
-        <v>89.48026908651906</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N37" t="n">
-        <v>74.45517414732592</v>
+        <v>82.54274397298506</v>
       </c>
       <c r="O37" t="n">
-        <v>102.113595649383</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P37" t="n">
-        <v>118.6644107301737</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q37" t="n">
-        <v>155.8557898621263</v>
+        <v>177.8251616508563</v>
       </c>
       <c r="R37" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S37" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T37" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U37" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V37" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W37" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X37" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="E38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="H38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="I38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="J38" t="n">
-        <v>129.7091307001162</v>
+        <v>139.7090537154</v>
       </c>
       <c r="K38" t="n">
-        <v>111.1174419326663</v>
+        <v>126.1047343199522</v>
       </c>
       <c r="L38" t="n">
-        <v>77.27993863709253</v>
+        <v>95.87300011056811</v>
       </c>
       <c r="M38" t="n">
-        <v>34.00615951243282</v>
+        <v>54.69452290108308</v>
       </c>
       <c r="N38" t="n">
-        <v>26.98324440689782</v>
+        <v>48.00636714419443</v>
       </c>
       <c r="O38" t="n">
-        <v>47.36819892972255</v>
+        <v>67.21973758497694</v>
       </c>
       <c r="P38" t="n">
-        <v>97.0580925873345</v>
+        <v>114.0009215480153</v>
       </c>
       <c r="Q38" t="n">
-        <v>151.9580129441776</v>
+        <v>164.6813718922237</v>
       </c>
       <c r="R38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y38" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="39">
@@ -30301,37 +30301,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="C39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="D39" t="n">
-        <v>155.8557898621263</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="F39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="G39" t="n">
-        <v>155.8557898621263</v>
+        <v>169.3772771946824</v>
       </c>
       <c r="H39" t="n">
-        <v>146.5438714795426</v>
+        <v>147.1527039470577</v>
       </c>
       <c r="I39" t="n">
-        <v>126.0217301993835</v>
+        <v>128.1921820022869</v>
       </c>
       <c r="J39" t="n">
-        <v>108.1417497546608</v>
+        <v>114.0976353962329</v>
       </c>
       <c r="K39" t="n">
-        <v>56.54704037195782</v>
+        <v>66.7265975729124</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>13.6876708920677</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -30343,34 +30343,34 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>19.69571729742788</v>
+        <v>31.73356832861344</v>
       </c>
       <c r="Q39" t="n">
-        <v>95.10414034237826</v>
+        <v>103.1511249629769</v>
       </c>
       <c r="R39" t="n">
-        <v>155.8557898621263</v>
+        <v>176.2610996859475</v>
       </c>
       <c r="S39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y39" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="40">
@@ -30380,10 +30380,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.8557898621263</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C40" t="n">
-        <v>155.8557898621263</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D40" t="n">
         <v>138.8631356105373</v>
@@ -30395,61 +30395,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>21.36953505893398</v>
+        <v>169.7092433502934</v>
       </c>
       <c r="H40" t="n">
-        <v>155.8557898621263</v>
+        <v>169.7952868872321</v>
       </c>
       <c r="I40" t="n">
-        <v>155.8557898621263</v>
+        <v>173.1943950862238</v>
       </c>
       <c r="J40" t="n">
-        <v>144.9047107016879</v>
+        <v>148.6412419518603</v>
       </c>
       <c r="K40" t="n">
-        <v>108.6442027532886</v>
+        <v>114.7844714143665</v>
       </c>
       <c r="L40" t="n">
-        <v>89.93937537569462</v>
+        <v>97.79680524136499</v>
       </c>
       <c r="M40" t="n">
-        <v>89.48026908651906</v>
+        <v>97.7648271869076</v>
       </c>
       <c r="N40" t="n">
-        <v>74.45517414732592</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>102.113595649383</v>
+        <v>109.5837753944877</v>
       </c>
       <c r="P40" t="n">
-        <v>118.6644107301737</v>
+        <v>125.0564400155399</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="T40" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="U40" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="V40" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="W40" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="X40" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.8557898621263</v>
+        <v>182.6289644071032</v>
       </c>
     </row>
     <row r="41">
@@ -30459,73 +30459,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>34.00615951243282</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>47.36819892972255</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>30.49509748320626</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30538,34 +30538,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30580,34 +30580,34 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.69571729742788</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30617,13 +30617,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -30632,37 +30632,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -30674,7 +30674,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -30696,76 +30696,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>34.00615951243282</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5.193929440417942</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30775,31 +30775,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30817,34 +30817,34 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.69571729742788</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.74219421274337</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H11" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I11" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J11" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K11" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M11" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N11" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O11" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P11" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q11" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R11" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S11" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T11" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H12" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I12" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J12" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K12" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L12" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M12" t="n">
         <v>230.9678051232798</v>
@@ -31858,22 +31858,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R12" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S12" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T12" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H13" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I13" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J13" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K13" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L13" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M13" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N13" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O13" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P13" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R13" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S13" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T13" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H14" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I14" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J14" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K14" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L14" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M14" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N14" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O14" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P14" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q14" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R14" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S14" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T14" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H15" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I15" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J15" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K15" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L15" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M15" t="n">
         <v>230.9678051232798</v>
@@ -32095,22 +32095,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R15" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S15" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T15" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H16" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I16" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J16" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K16" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L16" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M16" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N16" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O16" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P16" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R16" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S16" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T16" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H17" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I17" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J17" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K17" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L17" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M17" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N17" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O17" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P17" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q17" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R17" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S17" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T17" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H18" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I18" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J18" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K18" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L18" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M18" t="n">
         <v>230.9678051232798</v>
@@ -32332,22 +32332,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q18" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R18" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S18" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T18" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H19" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I19" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J19" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K19" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L19" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M19" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N19" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O19" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P19" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R19" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S19" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T19" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H20" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I20" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J20" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K20" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L20" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M20" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N20" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O20" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P20" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q20" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R20" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S20" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T20" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H21" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I21" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J21" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K21" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L21" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M21" t="n">
         <v>230.9678051232798</v>
@@ -32569,22 +32569,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q21" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R21" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S21" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T21" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H22" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I22" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J22" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K22" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L22" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M22" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N22" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O22" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P22" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R22" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S22" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T22" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H23" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I23" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J23" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K23" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L23" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M23" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N23" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O23" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P23" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R23" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S23" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T23" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H24" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I24" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J24" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K24" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L24" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M24" t="n">
         <v>230.9678051232798</v>
@@ -32806,22 +32806,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R24" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S24" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T24" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H25" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I25" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J25" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K25" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L25" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M25" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N25" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O25" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P25" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R25" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S25" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T25" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H26" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I26" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J26" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K26" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L26" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M26" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N26" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O26" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P26" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R26" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S26" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T26" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H27" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I27" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J27" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K27" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L27" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M27" t="n">
         <v>230.9678051232798</v>
@@ -33043,22 +33043,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R27" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S27" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T27" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H28" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I28" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J28" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K28" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L28" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M28" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N28" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O28" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P28" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R28" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S28" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T28" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H29" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I29" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J29" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K29" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L29" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M29" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N29" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O29" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P29" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R29" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S29" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T29" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H30" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I30" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J30" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K30" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L30" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M30" t="n">
         <v>230.9678051232798</v>
@@ -33280,22 +33280,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R30" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S30" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T30" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H31" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I31" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J31" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K31" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L31" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M31" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N31" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O31" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P31" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R31" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S31" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T31" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H32" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I32" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J32" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K32" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L32" t="n">
-        <v>305.8404856891368</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M32" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N32" t="n">
-        <v>345.8129839375625</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O32" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P32" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R32" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S32" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T32" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.036953796756759</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H33" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I33" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J33" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K33" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L33" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M33" t="n">
         <v>230.9678051232798</v>
@@ -33517,22 +33517,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R33" t="n">
-        <v>64.38209625828374</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S33" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T33" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H34" t="n">
-        <v>7.729287187387103</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I34" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J34" t="n">
-        <v>61.46284913733073</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K34" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L34" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M34" t="n">
-        <v>136.2741298283392</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N34" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O34" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P34" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R34" t="n">
-        <v>39.08901270840141</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S34" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T34" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H35" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I35" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J35" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K35" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L35" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M35" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N35" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O35" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P35" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q35" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R35" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S35" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T35" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H36" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I36" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J36" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K36" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L36" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M36" t="n">
         <v>230.9678051232798</v>
@@ -33754,22 +33754,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R36" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S36" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T36" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H37" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I37" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J37" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K37" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L37" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M37" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N37" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O37" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P37" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R37" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S37" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T37" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H38" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I38" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J38" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K38" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L38" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M38" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N38" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O38" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P38" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R38" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S38" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T38" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H39" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I39" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J39" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K39" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L39" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M39" t="n">
         <v>230.9678051232798</v>
@@ -33991,22 +33991,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R39" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S39" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T39" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H40" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I40" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J40" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K40" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L40" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M40" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N40" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O40" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P40" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R40" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S40" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T40" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H41" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I41" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J41" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K41" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L41" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M41" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N41" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O41" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P41" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R41" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S41" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T41" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H42" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I42" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J42" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K42" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L42" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M42" t="n">
         <v>230.9678051232798</v>
@@ -34228,22 +34228,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R42" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S42" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T42" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H43" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I43" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J43" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K43" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L43" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M43" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N43" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O43" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P43" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R43" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S43" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T43" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.938060521135792</v>
+        <v>1.820239368950531</v>
       </c>
       <c r="H44" t="n">
-        <v>19.84816231208193</v>
+        <v>18.64152643726463</v>
       </c>
       <c r="I44" t="n">
-        <v>74.71707824108768</v>
+        <v>70.1747782714654</v>
       </c>
       <c r="J44" t="n">
-        <v>164.4904641557491</v>
+        <v>154.4905411404652</v>
       </c>
       <c r="K44" t="n">
-        <v>246.5285660154272</v>
+        <v>231.5412736281413</v>
       </c>
       <c r="L44" t="n">
-        <v>305.8404856891367</v>
+        <v>287.2474242156611</v>
       </c>
       <c r="M44" t="n">
-        <v>340.3064694818854</v>
+        <v>319.6181060932351</v>
       </c>
       <c r="N44" t="n">
-        <v>345.8129839375624</v>
+        <v>324.7898612002658</v>
       </c>
       <c r="O44" t="n">
-        <v>326.5413946305184</v>
+        <v>306.689855975264</v>
       </c>
       <c r="P44" t="n">
-        <v>278.6955255149785</v>
+        <v>261.7526965542977</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.2887331018029</v>
+        <v>196.5653741537567</v>
       </c>
       <c r="R44" t="n">
-        <v>121.7416942107963</v>
+        <v>114.3406112598389</v>
       </c>
       <c r="S44" t="n">
-        <v>44.1635541253819</v>
+        <v>41.47870461996026</v>
       </c>
       <c r="T44" t="n">
-        <v>8.483859931271933</v>
+        <v>7.968097837580952</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1456191495160424</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.03695379675676</v>
+        <v>0.9739139227361266</v>
       </c>
       <c r="H45" t="n">
-        <v>10.01479061604555</v>
+        <v>9.405958148530488</v>
       </c>
       <c r="I45" t="n">
-        <v>35.70213730061651</v>
+        <v>33.53168549771314</v>
       </c>
       <c r="J45" t="n">
-        <v>97.96939357867264</v>
+        <v>92.01350793710047</v>
       </c>
       <c r="K45" t="n">
-        <v>167.4452979613755</v>
+        <v>157.265740760421</v>
       </c>
       <c r="L45" t="n">
-        <v>225.1508671422956</v>
+        <v>211.4631962502279</v>
       </c>
       <c r="M45" t="n">
         <v>230.9678051232798</v>
@@ -34465,22 +34465,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>198.0126947508588</v>
+        <v>185.9748437196732</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.3662425474067</v>
+        <v>124.319257926808</v>
       </c>
       <c r="R45" t="n">
-        <v>64.38209625828375</v>
+        <v>60.46809425549392</v>
       </c>
       <c r="S45" t="n">
-        <v>19.26096197045997</v>
+        <v>18.09002395959427</v>
       </c>
       <c r="T45" t="n">
-        <v>4.179651487804657</v>
+        <v>3.925556556993421</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.06407328439053468</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.8164967169329332</v>
       </c>
       <c r="H46" t="n">
-        <v>7.729287187387102</v>
+        <v>7.259398083276448</v>
       </c>
       <c r="I46" t="n">
-        <v>26.14364214302303</v>
+        <v>24.55428308740131</v>
       </c>
       <c r="J46" t="n">
-        <v>61.46284913733072</v>
+        <v>57.72631788715838</v>
       </c>
       <c r="K46" t="n">
-        <v>101.0023417738314</v>
+        <v>94.86207311275349</v>
       </c>
       <c r="L46" t="n">
-        <v>129.2482235813176</v>
+        <v>121.3907937156472</v>
       </c>
       <c r="M46" t="n">
-        <v>136.2741298283391</v>
+        <v>127.9895717279506</v>
       </c>
       <c r="N46" t="n">
-        <v>133.033835608678</v>
+        <v>124.9462657830189</v>
       </c>
       <c r="O46" t="n">
-        <v>122.8782793348616</v>
+        <v>115.4080995897568</v>
       </c>
       <c r="P46" t="n">
-        <v>105.1435958496911</v>
+        <v>98.7515665643249</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.79597574951181</v>
+        <v>68.37046599699318</v>
       </c>
       <c r="R46" t="n">
-        <v>39.0890127084014</v>
+        <v>36.71266147227534</v>
       </c>
       <c r="S46" t="n">
-        <v>15.1503512660747</v>
+        <v>14.22931096691302</v>
       </c>
       <c r="T46" t="n">
-        <v>3.714483617660465</v>
+        <v>3.488667790531623</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.04453618455997823</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
